--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34846F79-BAE4-46CA-96C4-62E0704C3F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9683EE7-A9D7-48B5-AA5B-780DD970506A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="201">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -845,6 +845,24 @@
   </si>
   <si>
     <t>~DefaultYear</t>
+  </si>
+  <si>
+    <t>G-INDELC</t>
+  </si>
+  <si>
+    <t>INDELC Annual</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>INDELC</t>
+  </si>
+  <si>
+    <t>G_INDELC</t>
+  </si>
+  <si>
+    <t>*ELC</t>
   </si>
 </sst>
 </file>
@@ -3815,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4081,7 +4099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5979,10 +5997,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:J33"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6073,66 +6091,81 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="127" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="127" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="127" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="127" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="127" t="s">
-        <v>172</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="127"/>
+        <v>167</v>
+      </c>
+      <c r="C13" s="127" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="127" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E13" s="127" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
+        <v>170</v>
+      </c>
+      <c r="G13" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="127" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="127" t="s">
@@ -6140,10 +6173,10 @@
       </c>
       <c r="C14" s="127"/>
       <c r="D14" s="127" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" s="127" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F14" s="127" t="s">
         <v>52</v>
@@ -6159,10 +6192,10 @@
       </c>
       <c r="C15" s="127"/>
       <c r="D15" s="127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E15" s="127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="127" t="s">
         <v>52</v>
@@ -6178,10 +6211,10 @@
       </c>
       <c r="C16" s="127"/>
       <c r="D16" s="127" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" s="127" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F16" s="127" t="s">
         <v>52</v>
@@ -6197,10 +6230,10 @@
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="127" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="127" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" s="127" t="s">
         <v>52</v>
@@ -6216,10 +6249,10 @@
       </c>
       <c r="C18" s="127"/>
       <c r="D18" s="127" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="127" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F18" s="127" t="s">
         <v>52</v>
@@ -6235,10 +6268,10 @@
       </c>
       <c r="C19" s="127"/>
       <c r="D19" s="127" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" s="127" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F19" s="127" t="s">
         <v>52</v>
@@ -6254,10 +6287,10 @@
       </c>
       <c r="C20" s="127"/>
       <c r="D20" s="127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E20" s="127" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F20" s="127" t="s">
         <v>52</v>
@@ -6273,10 +6306,10 @@
       </c>
       <c r="C21" s="127"/>
       <c r="D21" s="127" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" s="127" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F21" s="127" t="s">
         <v>52</v>
@@ -6292,10 +6325,10 @@
       </c>
       <c r="C22" s="127"/>
       <c r="D22" s="127" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E22" s="127" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F22" s="127" t="s">
         <v>52</v>
@@ -6311,10 +6344,10 @@
       </c>
       <c r="C23" s="127"/>
       <c r="D23" s="127" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E23" s="127" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F23" s="127" t="s">
         <v>52</v>
@@ -6330,10 +6363,10 @@
       </c>
       <c r="C24" s="127"/>
       <c r="D24" s="127" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E24" s="127" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F24" s="127" t="s">
         <v>52</v>
@@ -6349,10 +6382,10 @@
       </c>
       <c r="C25" s="127"/>
       <c r="D25" s="127" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E25" s="127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25" s="127" t="s">
         <v>52</v>
@@ -6368,10 +6401,10 @@
       </c>
       <c r="C26" s="127"/>
       <c r="D26" s="127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="127" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" s="127" t="s">
         <v>52</v>
@@ -6387,10 +6420,10 @@
       </c>
       <c r="C27" s="127"/>
       <c r="D27" s="127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E27" s="127" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F27" s="127" t="s">
         <v>52</v>
@@ -6402,17 +6435,17 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="127" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C28" s="127"/>
       <c r="D28" s="127" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="127" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F28" s="127" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="G28" s="127"/>
       <c r="H28" s="127"/>
@@ -6420,75 +6453,94 @@
       <c r="J28" s="127"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>176</v>
-      </c>
-      <c r="J29" t="s">
-        <v>56</v>
-      </c>
+      <c r="B29" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>165</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>174</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>175</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="127" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="127" t="s">
+      <c r="D32" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="127" t="s">
+      <c r="E32" s="127" t="s">
         <v>179</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D32" s="127" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="127" t="s">
-        <v>180</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="D33" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="127" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="127" t="s">
+      <c r="D34" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="127" t="s">
+      <c r="E34" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>52</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9683EE7-A9D7-48B5-AA5B-780DD970506A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA02264D-595B-45BB-A664-007BBAFCAC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="TimeSlices" sheetId="22" r:id="rId6"/>
     <sheet name="Defaults" sheetId="21" r:id="rId7"/>
     <sheet name="Commodity Group" sheetId="15" r:id="rId8"/>
+    <sheet name="Commodities" sheetId="24" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -260,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="207">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -863,6 +864,24 @@
   </si>
   <si>
     <t>*ELC</t>
+  </si>
+  <si>
+    <t>AT,DE,FR,ES,IT,BE,NL,UK</t>
+  </si>
+  <si>
+    <t>REG1,REG2</t>
+  </si>
+  <si>
+    <t>ComX</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>commodity x in elc regions</t>
+  </si>
+  <si>
+    <t>commodity x in non-elc regions</t>
   </si>
 </sst>
 </file>
@@ -3831,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3846,6 +3865,16 @@
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
@@ -5997,10 +6026,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6017,7 +6046,7 @@
     <col min="10" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6026,7 +6055,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
@@ -6037,7 +6066,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -6046,12 +6075,12 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -6077,7 +6106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
@@ -6091,7 +6120,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -6108,7 +6137,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>199</v>
       </c>
@@ -6123,425 +6152,6 @@
       </c>
       <c r="I9" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="127" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="127" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="127" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="127" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="127" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="127" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="127" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="127" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="127" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="127" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="127" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="127" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="127" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" t="s">
-        <v>176</v>
-      </c>
-      <c r="J30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="127" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="127" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="127" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6551,4 +6161,474 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EC31CD-0AC2-4117-ADE4-ED9EFDB1D2DC}">
+  <dimension ref="B3:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="127" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="127" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="127" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="127" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="127" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="127" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA02264D-595B-45BB-A664-007BBAFCAC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC0F735-2F65-4B40-B469-2D9456390537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="853" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -29,17 +29,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -261,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="213">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -882,6 +872,24 @@
   </si>
   <si>
     <t>commodity x in non-elc regions</t>
+  </si>
+  <si>
+    <t>ENVt</t>
+  </si>
+  <si>
+    <t>NRGt</t>
+  </si>
+  <si>
+    <t>MATt</t>
+  </si>
+  <si>
+    <t>FINt</t>
+  </si>
+  <si>
+    <t>DEMt</t>
+  </si>
+  <si>
+    <t>mUSD</t>
   </si>
 </sst>
 </file>
@@ -6165,10 +6173,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EC31CD-0AC2-4117-ADE4-ED9EFDB1D2DC}">
-  <dimension ref="B3:J27"/>
+  <dimension ref="B3:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6626,6 +6634,86 @@
         <v>164</v>
       </c>
     </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C28" t="str">
+        <f>LEFT(D28,3)</f>
+        <v>ENV</v>
+      </c>
+      <c r="D28" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" t="str">
+        <f>C28&amp;" commodity to test trade pcg"</f>
+        <v>ENV commodity to test trade pcg</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C29" t="str">
+        <f t="shared" ref="C29:C32" si="0">LEFT(D29,3)</f>
+        <v>NRG</v>
+      </c>
+      <c r="D29" s="127" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ref="E29:E32" si="1">C29&amp;" commodity to test trade pcg"</f>
+        <v>NRG commodity to test trade pcg</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>MAT</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>MAT commodity to test trade pcg</v>
+      </c>
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>FIN</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>FIN commodity to test trade pcg</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>DEM</v>
+      </c>
+      <c r="D32" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>DEM commodity to test trade pcg</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC0F735-2F65-4B40-B469-2D9456390537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40456845-D594-42BE-BC50-DD8FA2D60E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="853" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -27,9 +27,21 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Defaults!$B$14:$D$32</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -251,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="248">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -890,6 +902,111 @@
   </si>
   <si>
     <t>mUSD</t>
+  </si>
+  <si>
+    <t>~Milestoneyears</t>
+  </si>
+  <si>
+    <t>Def1</t>
+  </si>
+  <si>
+    <t>Def2</t>
+  </si>
+  <si>
+    <t>Def3</t>
+  </si>
+  <si>
+    <t>Def4</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>from_unit</t>
+  </si>
+  <si>
+    <t>to_unit</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>QBtu</t>
+  </si>
+  <si>
+    <t>Billion Kwh</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>B Euro</t>
+  </si>
+  <si>
+    <t>M Euro</t>
+  </si>
+  <si>
+    <t>TBtu</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
+  <si>
+    <t>mtoe</t>
+  </si>
+  <si>
+    <t>Gwh</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>b$</t>
+  </si>
+  <si>
+    <t>m$</t>
+  </si>
+  <si>
+    <t>$ per bbl</t>
+  </si>
+  <si>
+    <t>$ per GJ</t>
+  </si>
+  <si>
+    <t>$ per ton</t>
+  </si>
+  <si>
+    <t>m$ per kt</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>bcm</t>
+  </si>
+  <si>
+    <t>mbpd</t>
+  </si>
+  <si>
+    <t>Cents per Kwh</t>
+  </si>
+  <si>
+    <t>Twh</t>
+  </si>
+  <si>
+    <t>~UnitConversion</t>
+  </si>
+  <si>
+    <t>if original units are Qbtu and display units are bcm, then mult factor will be 1055.55 / 37.68</t>
+  </si>
+  <si>
+    <t>user selects original units. For conversion, we display all units where to_unit = &lt;to_unit of &lt;original units&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1019,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1017,6 +1134,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1293,7 +1417,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1590,6 +1714,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -1988,16 +2117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68579</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>146684</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240029</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>340995</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127693</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2012,7 +2141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3745229" y="1442084"/>
+          <a:off x="5107304" y="41909"/>
           <a:ext cx="6520816" cy="1924109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3860,9 +3989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4134,18 +4261,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:E23"/>
+  <dimension ref="A3:E39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4172,8 +4300,9 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>80</v>
+      <c r="B8" t="str">
+        <f>E27</f>
+        <v>Def4</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -4232,7 +4361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="14">
         <v>5</v>
@@ -4241,46 +4370,203 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14">
         <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="132" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="128" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="128" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28">
+        <f>MAX(B29:B39)+4</f>
+        <v>2011</v>
+      </c>
+      <c r="C28">
+        <f>MAX(C29:C39)+4</f>
+        <v>2019</v>
+      </c>
+      <c r="D28">
+        <f>MAX(D29:D39)+4</f>
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="14">
+        <v>2005</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2005</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2005</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="14">
+        <v>2007</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2006</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2006</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14">
+        <v>2007</v>
+      </c>
+      <c r="D31" s="14">
+        <v>2007</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14">
+        <v>2010</v>
+      </c>
+      <c r="D32" s="14">
+        <v>2010</v>
+      </c>
+      <c r="E32" s="14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="14">
+        <v>2015</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14">
+        <v>2020</v>
+      </c>
+      <c r="E34" s="14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14">
+        <v>2030</v>
+      </c>
+      <c r="E35" s="14">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14">
+        <v>2050</v>
+      </c>
+      <c r="E36" s="14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
@@ -4296,9 +4582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5908,15 +6192,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -5924,7 +6208,7 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
@@ -5932,7 +6216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>44</v>
       </c>
@@ -5955,7 +6239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>87</v>
       </c>
@@ -5978,7 +6262,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>189</v>
       </c>
@@ -6001,7 +6285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="D6" t="s">
         <v>48</v>
@@ -6022,13 +6306,235 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="134"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="134" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="134" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="133">
+        <v>1055.55</v>
+      </c>
+      <c r="K15" s="136" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="134" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="133">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="134" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="133">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="136" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="134" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="134" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="133">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="134" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="133">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="134" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="133">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="134" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="133">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="134" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="135">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="134" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="133">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="134" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="133">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="134" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="133">
+        <v>0.15384600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="133">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="133">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="133">
+        <v>37.681199999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="133">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="134" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="133">
+        <v>2.7777769999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="133">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="133">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6175,7 +6681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EC31CD-0AC2-4117-ADE4-ED9EFDB1D2DC}">
   <dimension ref="B3:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40456845-D594-42BE-BC50-DD8FA2D60E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF24E5-8978-4DD1-ABA1-6E540D28EE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
-    <sheet name="TimePeriods" sheetId="18" r:id="rId2"/>
-    <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="23" r:id="rId4"/>
-    <sheet name="Constants" sheetId="20" r:id="rId5"/>
-    <sheet name="TimeSlices" sheetId="22" r:id="rId6"/>
-    <sheet name="Defaults" sheetId="21" r:id="rId7"/>
-    <sheet name="Commodity Group" sheetId="15" r:id="rId8"/>
-    <sheet name="Commodities" sheetId="24" r:id="rId9"/>
+    <sheet name="TimeSlices Adv" sheetId="25" r:id="rId2"/>
+    <sheet name="TimePeriods" sheetId="18" r:id="rId3"/>
+    <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId5"/>
+    <sheet name="Constants" sheetId="20" r:id="rId6"/>
+    <sheet name="TimeSlices" sheetId="22" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId8"/>
+    <sheet name="Defaults" sheetId="21" r:id="rId9"/>
+    <sheet name="Commodity Group" sheetId="15" r:id="rId10"/>
+    <sheet name="Commodities" sheetId="24" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Defaults!$B$14:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Defaults!$B$14:$D$32</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -171,7 +173,7 @@
     <author>KanORS</author>
   </authors>
   <commentList>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="301">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -301,9 +303,6 @@
     <t>~TimePeriods</t>
   </si>
   <si>
-    <t>~TimeSlices</t>
-  </si>
-  <si>
     <t>Season</t>
   </si>
   <si>
@@ -922,9 +921,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>from_unit</t>
   </si>
   <si>
@@ -1007,22 +1003,208 @@
   </si>
   <si>
     <t>user selects original units. For conversion, we display all units where to_unit = &lt;to_unit of &lt;original units&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Endyear</t>
+  </si>
+  <si>
+    <t>milestoneyear</t>
+  </si>
+  <si>
+    <t>~Timeslices</t>
+  </si>
+  <si>
+    <t>WParent</t>
+  </si>
+  <si>
+    <t>DParent</t>
+  </si>
+  <si>
+    <t>WkE</t>
+  </si>
+  <si>
+    <t>S,F,W,R</t>
+  </si>
+  <si>
+    <t>WkD,WkE</t>
+  </si>
+  <si>
+    <t>WkD</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Od</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H00</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>RPT_OPT</t>
+  </si>
+  <si>
+    <t>NCAP~1</t>
+  </si>
+  <si>
+    <t>FLO~3</t>
+  </si>
+  <si>
+    <t>FLO~5</t>
+  </si>
+  <si>
+    <t>FLO~7</t>
+  </si>
+  <si>
+    <t>COMPRD~1</t>
+  </si>
+  <si>
+    <t>OBJ~1</t>
+  </si>
+  <si>
+    <t>~RFInput</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>RFSwitch</t>
+  </si>
+  <si>
+    <t>$SET BENCOST YES</t>
+  </si>
+  <si>
+    <t>benefit-cost reporting for new technologies</t>
+  </si>
+  <si>
+    <t>$SET ANNCOST LEV</t>
+  </si>
+  <si>
+    <t>report annual costs based upon levelized values over process lifetimes or periods</t>
+  </si>
+  <si>
+    <t>$SET WAVER YES</t>
+  </si>
+  <si>
+    <t>weighted average interpolation (COM_PROJ and PRC_RESID)</t>
+  </si>
+  <si>
+    <t>FLO~1</t>
+  </si>
+  <si>
+    <t>ELC~1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="18">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="[&gt;0.5]#,##0;[&lt;-0.5]\-#,##0;\-"/>
+    <numFmt numFmtId="174" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1142,8 +1324,285 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7.5"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,8 +1680,247 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1405,331 +2103,1443 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="52" fillId="46" borderId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="53" fillId="0" borderId="8" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="1" fillId="52" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="1" fillId="53" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="54" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="54" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="9">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="9">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="9">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="9">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="56" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyNumberFormat="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="56" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="50" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="50" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="52" fillId="0" borderId="23">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="48" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="48" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="49" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="48" borderId="3"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="57" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="57" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="57" borderId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="431" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="431" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="435">
+    <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{868B5B88-E909-4783-AD13-DE2EB64A3CB4}"/>
+    <cellStyle name="20% - Accent1 3" xfId="10" xr:uid="{61BBC959-7746-45BD-8177-E58B91071E9A}"/>
+    <cellStyle name="20% - Accent2 2" xfId="11" xr:uid="{84EF0E0D-0CC7-40A8-A781-F5D8904EB610}"/>
+    <cellStyle name="20% - Accent2 3" xfId="12" xr:uid="{4A384CE9-8910-4F61-B432-9EEE421465ED}"/>
+    <cellStyle name="20% - Accent3 2" xfId="13" xr:uid="{A6CAB77B-8149-4341-9E51-9140CD8476F2}"/>
+    <cellStyle name="20% - Accent3 3" xfId="14" xr:uid="{4AD0C497-3EBA-4FD1-9766-512F271F342A}"/>
+    <cellStyle name="20% - Accent4 2" xfId="15" xr:uid="{38922AB4-8CDE-4B7C-ACA4-EEC0C44E427D}"/>
+    <cellStyle name="20% - Accent4 3" xfId="16" xr:uid="{D0627B28-0DFD-40CA-A531-65352EC4C7BF}"/>
+    <cellStyle name="20% - Accent5 2" xfId="17" xr:uid="{404A3227-33CA-4A9D-8EE6-C6676A52B91B}"/>
+    <cellStyle name="20% - Accent6 2" xfId="18" xr:uid="{51083A40-2A7A-4D3F-8310-D28970B84CB2}"/>
+    <cellStyle name="40% - Accent1 2" xfId="19" xr:uid="{9ED895F6-E454-4CB3-A021-871A43D69773}"/>
+    <cellStyle name="40% - Accent2 2" xfId="20" xr:uid="{9AFDF351-203A-49CE-B43D-2E25628A04D5}"/>
+    <cellStyle name="40% - Accent3 2" xfId="21" xr:uid="{DF03EE91-1EE8-4652-9912-86E20530AD21}"/>
+    <cellStyle name="40% - Accent3 3" xfId="22" xr:uid="{05843E46-F9CB-4D86-BE31-FA8661002960}"/>
+    <cellStyle name="40% - Accent4 2" xfId="23" xr:uid="{906AC48A-A6CC-451C-9DFD-8C56AE97F7A6}"/>
+    <cellStyle name="40% - Accent5 2" xfId="24" xr:uid="{7839B555-12E7-472F-9924-BEF5B5E17CA7}"/>
+    <cellStyle name="40% - Accent6 2" xfId="25" xr:uid="{30E00813-234B-40B6-A751-132E826C86F7}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="26" xr:uid="{7FB3E44A-2A5F-470E-A564-E1753F1D3FA0}"/>
+    <cellStyle name="5x indented GHG Textfiels 2" xfId="27" xr:uid="{40CF4ADA-851F-4A81-AA3B-508230033FCB}"/>
+    <cellStyle name="60% - Accent1 2" xfId="28" xr:uid="{F3EA9B40-A5FD-42DC-9CE9-9B3A1E621A20}"/>
+    <cellStyle name="60% - Accent2 2" xfId="29" xr:uid="{A259AC63-147E-46AE-94F9-2727A5806743}"/>
+    <cellStyle name="60% - Accent3 2" xfId="30" xr:uid="{92B80441-6731-498B-8FCB-781B99C4DA44}"/>
+    <cellStyle name="60% - Accent3 3" xfId="31" xr:uid="{BD971AEA-FEF9-438C-9777-B3F3818B4E25}"/>
+    <cellStyle name="60% - Accent4 2" xfId="32" xr:uid="{ABA6BEA3-ABD4-4EA6-AE75-6EE35F3E9482}"/>
+    <cellStyle name="60% - Accent4 3" xfId="33" xr:uid="{78F26E2C-66EE-4AC2-AD30-CC51E53AB83A}"/>
+    <cellStyle name="60% - Accent5 2" xfId="34" xr:uid="{2DD13F00-B73A-465F-A361-AF8A6D4703FA}"/>
+    <cellStyle name="60% - Accent6 2" xfId="35" xr:uid="{8C718B03-78E1-4EEB-BB43-6002EC226E11}"/>
+    <cellStyle name="60% - Accent6 3" xfId="36" xr:uid="{6E797AC4-68BA-4397-8F6E-A1DF3F166F5B}"/>
+    <cellStyle name="Accent1 2" xfId="37" xr:uid="{88DB5321-DDF0-44BA-9C0B-586E0C9A04BF}"/>
+    <cellStyle name="Accent2 2" xfId="38" xr:uid="{C6822AFB-5ABD-42F7-ADC5-C0011FAA3FAF}"/>
+    <cellStyle name="Accent3 2" xfId="39" xr:uid="{7A6E0F3A-BF69-4EE1-AB39-3B6D8549BB2E}"/>
+    <cellStyle name="Accent4 2" xfId="40" xr:uid="{16536BB4-0418-4932-957F-65074F3C5280}"/>
+    <cellStyle name="Accent5 2" xfId="41" xr:uid="{60AAB055-FD90-46C8-80EA-3BF45612E9C2}"/>
+    <cellStyle name="Accent6 2" xfId="42" xr:uid="{F1254207-841C-426D-992D-65F5638CD740}"/>
+    <cellStyle name="AggblueCels_1x" xfId="43" xr:uid="{ADC8ACDF-1A36-41A9-9C3E-72CEBF1A6867}"/>
+    <cellStyle name="Assumption Heading" xfId="44" xr:uid="{A62B6DE4-C7FB-41B8-A1BF-FBB0CA8E5BB2}"/>
+    <cellStyle name="Assumptions" xfId="45" xr:uid="{5229E638-B100-4FA9-A9A1-5508AEC4CCD0}"/>
+    <cellStyle name="Attrib" xfId="46" xr:uid="{D6ACCA7B-2669-4458-B37E-69DDE0A70128}"/>
+    <cellStyle name="Attrib 2" xfId="47" xr:uid="{9CCFEA19-6E4E-49EE-A036-02DFAA69AAB0}"/>
+    <cellStyle name="Attrib 2 2" xfId="48" xr:uid="{6437E455-BE1C-4707-86D6-75D0B8101A81}"/>
+    <cellStyle name="Attrib 2 3" xfId="49" xr:uid="{D118C8D2-F48D-4E11-8C09-8EB3EB554C43}"/>
+    <cellStyle name="Bad 2" xfId="50" xr:uid="{B97578F1-E50B-40DC-8D50-6515804B2E4D}"/>
+    <cellStyle name="Bold GHG Numbers (0.00)" xfId="51" xr:uid="{7A374C52-42B8-4499-8DB2-F5EFED35C02A}"/>
+    <cellStyle name="Calculation 2" xfId="52" xr:uid="{772AC89F-3961-47E4-A837-160F847E40FD}"/>
+    <cellStyle name="Calculation 2 2" xfId="53" xr:uid="{2E45F2AF-CEEA-4A8B-ABB7-227CAB48A41D}"/>
+    <cellStyle name="Calculation 2 3" xfId="54" xr:uid="{1089EF20-C8C7-4C49-8363-A01F0CD040D8}"/>
+    <cellStyle name="Char" xfId="55" xr:uid="{A83237E4-7299-421B-8A47-AEB132FD498C}"/>
+    <cellStyle name="Check Cell 2" xfId="56" xr:uid="{BD3EF601-A40A-4F11-A0FA-FBDB61C984C3}"/>
+    <cellStyle name="Comma 10" xfId="57" xr:uid="{82DD5445-0C78-44D0-AAD2-B6316DB6BE9B}"/>
+    <cellStyle name="Comma 11" xfId="58" xr:uid="{DA4A6CE0-27A4-4E44-84D2-92F907AB97D8}"/>
+    <cellStyle name="Comma 2" xfId="59" xr:uid="{D3A85965-1B51-4A10-ADE0-8E21F794C819}"/>
+    <cellStyle name="Comma 2 2" xfId="60" xr:uid="{429EFD1F-97A3-4ADF-BEAF-8EB6102F0109}"/>
+    <cellStyle name="Comma 2 2 2" xfId="61" xr:uid="{481593D9-22AB-4EDC-9486-097E45F7F133}"/>
+    <cellStyle name="Comma 2 2 3" xfId="62" xr:uid="{8407FB83-2A72-4120-A582-8955943DED5C}"/>
+    <cellStyle name="Comma 2 3" xfId="63" xr:uid="{1CB83C0B-8DAB-4949-B0FD-D140357DB26D}"/>
+    <cellStyle name="Comma 2 3 2" xfId="64" xr:uid="{DC395DA1-D5DB-40EA-A65B-C39D1A5729FA}"/>
+    <cellStyle name="Comma 2 4" xfId="65" xr:uid="{8F89A8C5-C04B-4B7B-91C8-5539A995533A}"/>
+    <cellStyle name="Comma 2 4 2" xfId="66" xr:uid="{C1021355-263F-4661-8DF1-1F394439896D}"/>
+    <cellStyle name="Comma 2 5" xfId="67" xr:uid="{CB208569-AEA1-4A30-A63E-0555B5C5948C}"/>
+    <cellStyle name="Comma 2 6" xfId="68" xr:uid="{7F832AF4-46B2-4DD9-A4C5-5C818E0FBE80}"/>
+    <cellStyle name="Comma 3" xfId="69" xr:uid="{6462ED24-E9D8-4F0E-ACEA-818A3C834610}"/>
+    <cellStyle name="Comma 3 2" xfId="70" xr:uid="{01D17297-1B1B-4DE7-9C9E-3B96C871F8E3}"/>
+    <cellStyle name="Comma 3 2 2" xfId="71" xr:uid="{5E3BB7AB-E5EB-45F1-A307-517078FC9343}"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="72" xr:uid="{C0EDAB8E-4CE4-4B05-84BE-6A3ED64AD1EE}"/>
+    <cellStyle name="Comma 3 2 3" xfId="73" xr:uid="{789DE527-286F-49F0-BA9F-5AC92F549D1C}"/>
+    <cellStyle name="Comma 3 2 4" xfId="74" xr:uid="{C063783F-379A-4961-ABC0-192A991C885F}"/>
+    <cellStyle name="Comma 3 3" xfId="75" xr:uid="{23A47A93-32B5-48C9-A6D8-306B191E8222}"/>
+    <cellStyle name="Comma 3 3 2" xfId="76" xr:uid="{66713BA3-108B-4193-B293-3D0404879CD7}"/>
+    <cellStyle name="Comma 3 4" xfId="77" xr:uid="{C6650405-89EF-4F1F-9C0F-6EABFE8F24BF}"/>
+    <cellStyle name="Comma 3 4 2" xfId="78" xr:uid="{D8653A5B-B2EC-4309-8A81-AC9E9744E28C}"/>
+    <cellStyle name="Comma 3 5" xfId="79" xr:uid="{9CAF0701-FE09-449B-B44E-5D13ADB66413}"/>
+    <cellStyle name="Comma 4" xfId="80" xr:uid="{F2E727AA-381E-4CA5-9649-F0EB6AF475B6}"/>
+    <cellStyle name="Comma 4 2" xfId="81" xr:uid="{B0847DDA-2B29-473E-9D95-7F8EE25F6FAC}"/>
+    <cellStyle name="Comma 4 2 2" xfId="82" xr:uid="{97142E5F-15E2-418A-93ED-82FEC4185E72}"/>
+    <cellStyle name="Comma 4 2 3" xfId="83" xr:uid="{F08671F2-906F-445A-8E7A-923C77246974}"/>
+    <cellStyle name="Comma 4 3" xfId="84" xr:uid="{693E515A-7FA3-4C17-86A1-9107D586C935}"/>
+    <cellStyle name="Comma 4 4" xfId="85" xr:uid="{C36BD675-C754-4EA3-8BB9-EA7BB58005F2}"/>
+    <cellStyle name="Comma 4 4 2" xfId="86" xr:uid="{896AE29D-A289-447B-BE97-15A58627D7AC}"/>
+    <cellStyle name="Comma 4 5" xfId="87" xr:uid="{9BBC64A2-E8EF-46F1-ABA1-BA48CC4C6AA0}"/>
+    <cellStyle name="Comma 4 6" xfId="88" xr:uid="{8F679643-62EF-4613-92C4-11CA8A4F8AD9}"/>
+    <cellStyle name="Comma 4 7" xfId="89" xr:uid="{6B73F9B1-C0C7-4995-906F-7895504B894A}"/>
+    <cellStyle name="Comma 4 8" xfId="90" xr:uid="{5C84CEF9-0DBB-4451-8223-01487BB80942}"/>
+    <cellStyle name="Comma 5" xfId="91" xr:uid="{8D6B1565-C980-4645-8A82-8B77BDEBAB32}"/>
+    <cellStyle name="Comma 6" xfId="92" xr:uid="{707986E7-49C4-4902-99CC-AB54141FD105}"/>
+    <cellStyle name="Comma 6 2" xfId="93" xr:uid="{AB8ACBAA-3EB6-46E0-9570-96272D53C690}"/>
+    <cellStyle name="Comma 6 2 2" xfId="94" xr:uid="{D1B830D7-E6AF-49E0-9984-3099FBF99A2D}"/>
+    <cellStyle name="Comma 6 3" xfId="95" xr:uid="{28DDD178-5D56-4FE8-BFA6-5FB3A47BEA33}"/>
+    <cellStyle name="Comma 7" xfId="96" xr:uid="{76574AE0-08B5-4B0A-87DC-A05C8D84ED25}"/>
+    <cellStyle name="Comma 8" xfId="97" xr:uid="{C0820844-F791-4B8A-A6B0-8EEB1B785B17}"/>
+    <cellStyle name="Comma 8 2" xfId="98" xr:uid="{B3D705D9-57CB-43F2-9612-58C6779A21DF}"/>
+    <cellStyle name="Comma 9" xfId="99" xr:uid="{AC0F1629-996A-4CED-9ABA-288ABA8E29D0}"/>
+    <cellStyle name="Currency 2" xfId="100" xr:uid="{40FEC526-E19C-4F25-A7FA-7A4F25E5B1CC}"/>
+    <cellStyle name="Currency 2 2" xfId="101" xr:uid="{D3A93806-43C3-4B46-9A31-C134353F30E7}"/>
+    <cellStyle name="Data" xfId="102" xr:uid="{041EA2C6-FE62-400F-AA48-7144C55BF920}"/>
+    <cellStyle name="Defn" xfId="103" xr:uid="{998D7B76-561A-4B0B-BB41-D3B970247198}"/>
+    <cellStyle name="Defn 2" xfId="104" xr:uid="{436400DE-5B52-42A0-805A-AAE2FC1F494A}"/>
+    <cellStyle name="Desc" xfId="105" xr:uid="{FA95E16E-744C-40C3-A270-333881D37D5A}"/>
+    <cellStyle name="Desc 2" xfId="106" xr:uid="{AE479A8E-F582-4DB0-A763-A331DC867384}"/>
+    <cellStyle name="Desc 2 2" xfId="107" xr:uid="{07C71BAD-00D3-46AB-9537-C5DDB111EDBC}"/>
+    <cellStyle name="Desc 3" xfId="108" xr:uid="{DE5446B4-4AC3-4CE1-A1CD-F41E475BF094}"/>
+    <cellStyle name="Desc 3 2" xfId="109" xr:uid="{E2852BD3-FA22-48EF-B488-224326E37E94}"/>
+    <cellStyle name="Desc 4" xfId="110" xr:uid="{E3D9F0AF-98FC-41FF-85F0-4D705AEA4361}"/>
+    <cellStyle name="Desc 5" xfId="111" xr:uid="{4EC2329E-59A8-4D59-A56E-11C227A60C50}"/>
+    <cellStyle name="Description" xfId="112" xr:uid="{3FA4A5D0-D29D-41D0-87E1-60818378EA88}"/>
+    <cellStyle name="Euro" xfId="113" xr:uid="{16DECCD3-48FC-456D-8FB9-9913CBA7A04F}"/>
+    <cellStyle name="Euro 10" xfId="114" xr:uid="{24E352FA-3A5C-41B3-B12B-36AA3B57D22E}"/>
+    <cellStyle name="Euro 10 2" xfId="115" xr:uid="{6B57E1DB-C86B-424E-A87E-F617D49DA3CC}"/>
+    <cellStyle name="Euro 10 2 2" xfId="116" xr:uid="{D3169669-6049-49FB-BD99-0197BACD0536}"/>
+    <cellStyle name="Euro 10 2 3" xfId="117" xr:uid="{849F1E75-3801-4973-BBB1-CA466BC2728F}"/>
+    <cellStyle name="Euro 10 3" xfId="118" xr:uid="{0758BA99-124F-425F-8382-BD22EBFC77B2}"/>
+    <cellStyle name="Euro 11" xfId="119" xr:uid="{A317044D-8B5F-42C9-B1BB-13B60478494F}"/>
+    <cellStyle name="Euro 11 2" xfId="120" xr:uid="{B6ED07AA-A874-4924-A432-527CD071ACFD}"/>
+    <cellStyle name="Euro 11 2 2" xfId="121" xr:uid="{8FF65B3E-EC87-49DC-BCAF-B00DB8D4C56C}"/>
+    <cellStyle name="Euro 11 2 3" xfId="122" xr:uid="{4901F30A-1D7D-4086-B5EB-C308733D285F}"/>
+    <cellStyle name="Euro 11 3" xfId="123" xr:uid="{F85C4510-7A57-4CFE-9C8D-75002FD34EC3}"/>
+    <cellStyle name="Euro 12" xfId="124" xr:uid="{780775F0-D801-454C-8E00-8A828D02748B}"/>
+    <cellStyle name="Euro 12 2" xfId="125" xr:uid="{61BD53E1-2870-45C2-9A1E-F7824227CD92}"/>
+    <cellStyle name="Euro 12 2 2" xfId="126" xr:uid="{A397E7F7-62C5-4D4D-AD18-60C59F52C1B5}"/>
+    <cellStyle name="Euro 12 2 3" xfId="127" xr:uid="{D552D731-7AD4-4761-8261-64E6A6CE79D5}"/>
+    <cellStyle name="Euro 12 3" xfId="128" xr:uid="{4596BC18-A5E8-41A3-8A4F-C2F1CC5C8026}"/>
+    <cellStyle name="Euro 13" xfId="129" xr:uid="{624BA69B-96A7-40FA-B8C2-D9F7317231DD}"/>
+    <cellStyle name="Euro 13 2" xfId="130" xr:uid="{C0376EC3-B3CD-4403-B649-EBC459E24576}"/>
+    <cellStyle name="Euro 13 3" xfId="131" xr:uid="{3C146843-2685-4D1B-AB30-5CC5677AF465}"/>
+    <cellStyle name="Euro 14" xfId="132" xr:uid="{7D8D6DA5-76DB-4EA8-8036-2ADDC76453F4}"/>
+    <cellStyle name="Euro 14 2" xfId="133" xr:uid="{25055F82-D28A-43AC-9A55-E7D57E91FB1C}"/>
+    <cellStyle name="Euro 15" xfId="134" xr:uid="{5F01518B-32FD-4C70-99F0-4913ED25A649}"/>
+    <cellStyle name="Euro 2" xfId="135" xr:uid="{665AD0F8-8581-4F0B-93EE-9534C07178D8}"/>
+    <cellStyle name="Euro 2 2" xfId="136" xr:uid="{768553FD-E726-49AC-A588-DD14197AEA36}"/>
+    <cellStyle name="Euro 2 2 2" xfId="137" xr:uid="{92C88DD7-FFE8-4D80-B76A-378259381E01}"/>
+    <cellStyle name="Euro 2 2 3" xfId="138" xr:uid="{D72BA9D2-A758-4C9F-A9A8-0A978FA9D584}"/>
+    <cellStyle name="Euro 2 3" xfId="139" xr:uid="{FBE09DAB-07F4-4970-96B6-5F97D6C6459E}"/>
+    <cellStyle name="Euro 3" xfId="140" xr:uid="{B6002481-506F-40E5-A296-8180E99ED5C1}"/>
+    <cellStyle name="Euro 3 2" xfId="141" xr:uid="{0A3CB578-E5D8-421B-904A-3C22B305BFDD}"/>
+    <cellStyle name="Euro 3 2 2" xfId="142" xr:uid="{83D82B26-38A2-4C57-8E36-F79134B23745}"/>
+    <cellStyle name="Euro 3 2 3" xfId="143" xr:uid="{833E2A17-6D24-4F3C-8B04-59DFC5DCF4FB}"/>
+    <cellStyle name="Euro 3 3" xfId="144" xr:uid="{ADD48A02-55C5-4FAB-B1D8-CEAB45E498D1}"/>
+    <cellStyle name="Euro 4" xfId="145" xr:uid="{C7967936-8009-4A0C-91F4-87B401D17D31}"/>
+    <cellStyle name="Euro 4 2" xfId="146" xr:uid="{D0A2947F-ACD4-4B29-BD90-0D9E9D9E0862}"/>
+    <cellStyle name="Euro 4 2 2" xfId="147" xr:uid="{34096FF3-B390-47ED-813C-99888374EBD5}"/>
+    <cellStyle name="Euro 4 2 3" xfId="148" xr:uid="{396FF108-998E-46FE-8BDD-E5B891FE75D4}"/>
+    <cellStyle name="Euro 4 3" xfId="149" xr:uid="{77B073D3-2270-4A71-AB08-81E17F23F889}"/>
+    <cellStyle name="Euro 5" xfId="150" xr:uid="{9A4267BC-EE7B-434F-97EB-6A2DD1C90B63}"/>
+    <cellStyle name="Euro 5 2" xfId="151" xr:uid="{92B541A4-85DA-4A0F-A02F-76A539B92AB1}"/>
+    <cellStyle name="Euro 5 2 2" xfId="152" xr:uid="{C8F91DC9-0977-4F6C-9086-C2E975D78905}"/>
+    <cellStyle name="Euro 5 2 3" xfId="153" xr:uid="{F09CFB83-ACE1-46F8-BE91-17089AFEC1DE}"/>
+    <cellStyle name="Euro 5 3" xfId="154" xr:uid="{C59C0104-242B-44D1-B285-418E4D4ADBD1}"/>
+    <cellStyle name="Euro 6" xfId="155" xr:uid="{0D637AEA-98EA-4202-BB4E-915624602D52}"/>
+    <cellStyle name="Euro 6 2" xfId="156" xr:uid="{7E287FA9-C343-4BB2-8B4B-CBA512B0A0BD}"/>
+    <cellStyle name="Euro 6 2 2" xfId="157" xr:uid="{03F6E83F-9B7E-4DEE-8939-903E132881C2}"/>
+    <cellStyle name="Euro 6 2 3" xfId="158" xr:uid="{7AC7AA99-60A5-4D32-B119-26BCC3A2471D}"/>
+    <cellStyle name="Euro 6 3" xfId="159" xr:uid="{DDE5C924-F931-4372-953E-1D98985796FC}"/>
+    <cellStyle name="Euro 7" xfId="160" xr:uid="{9330162F-FA63-428C-B187-3AEEE644FC6F}"/>
+    <cellStyle name="Euro 7 2" xfId="161" xr:uid="{E7DCE743-FA58-4B1E-9B3D-CD8B50279CC1}"/>
+    <cellStyle name="Euro 7 2 2" xfId="162" xr:uid="{483499A6-472A-4E00-8C7F-0AD2FD12EEDC}"/>
+    <cellStyle name="Euro 7 2 3" xfId="163" xr:uid="{2EAE2C43-418A-4EFD-BFDC-F1F20C0CC138}"/>
+    <cellStyle name="Euro 7 3" xfId="164" xr:uid="{7D0BF00E-9803-4EFB-AB03-F66980F36EBD}"/>
+    <cellStyle name="Euro 8" xfId="165" xr:uid="{4F2530D6-35B3-4804-A741-46FD5E79776A}"/>
+    <cellStyle name="Euro 8 2" xfId="166" xr:uid="{6A2ADA11-D024-4FFC-AD58-AC2F817B1B9E}"/>
+    <cellStyle name="Euro 8 2 2" xfId="167" xr:uid="{3E916112-8D51-44D3-B693-929E00DB7C60}"/>
+    <cellStyle name="Euro 8 2 3" xfId="168" xr:uid="{5FCC718A-64C0-4FED-A45B-B9275F6097E7}"/>
+    <cellStyle name="Euro 8 3" xfId="169" xr:uid="{9432CB76-6EC4-4D27-9370-91F77F38E783}"/>
+    <cellStyle name="Euro 9" xfId="170" xr:uid="{F3957EAC-0C09-422B-8BFC-6AA5A356BC1D}"/>
+    <cellStyle name="Euro 9 2" xfId="171" xr:uid="{88DDCF86-8C48-40AB-9BEE-5DFDB9326D98}"/>
+    <cellStyle name="Euro 9 2 2" xfId="172" xr:uid="{A8DBB650-F925-46A4-8F52-8D026554A279}"/>
+    <cellStyle name="Euro 9 2 3" xfId="173" xr:uid="{87DD275D-9B06-4614-A209-1ABBD143E5C1}"/>
+    <cellStyle name="Euro 9 3" xfId="174" xr:uid="{2E3A998B-54C8-4016-9C78-B5F418D4714E}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="175" xr:uid="{4083B22A-033F-4923-A1D5-8D09254F1A75}"/>
+    <cellStyle name="Explanatory Text 2" xfId="176" xr:uid="{9F2F2719-73D8-4056-9B0E-659BBECAEFC8}"/>
+    <cellStyle name="Float" xfId="177" xr:uid="{E11E7E75-D766-4ADE-8A62-B5BC1E808890}"/>
+    <cellStyle name="Float 2" xfId="178" xr:uid="{B495B862-B75D-4E17-943E-C578B2DDB4B4}"/>
+    <cellStyle name="Float 2 2" xfId="179" xr:uid="{822410AF-F23C-49EE-937C-C7922F3A06AC}"/>
+    <cellStyle name="Float 2 2 2" xfId="180" xr:uid="{27707DE1-6CB5-4BEF-8568-04B18DCAB794}"/>
+    <cellStyle name="Float 2 2 3" xfId="181" xr:uid="{96D2C606-EB65-40B0-BA7C-713DEBECA144}"/>
+    <cellStyle name="Float 2 3" xfId="182" xr:uid="{945337A6-337E-4AAE-9B4D-AE5A317EEAD8}"/>
+    <cellStyle name="Float 3" xfId="183" xr:uid="{317010EA-A8BA-4722-B54E-32DCB390E227}"/>
+    <cellStyle name="Float 3 2" xfId="184" xr:uid="{182780AC-2AC4-4677-A972-821694702016}"/>
+    <cellStyle name="Float 3 3" xfId="185" xr:uid="{DE6BBDDB-177E-41E3-BDA6-4D818648B15D}"/>
+    <cellStyle name="Float 4" xfId="186" xr:uid="{8E933F9E-9DA2-4F27-AEDE-E3E3152F0202}"/>
+    <cellStyle name="Good 2" xfId="187" xr:uid="{BB37B930-94A2-48EF-AF7B-C42475492154}"/>
+    <cellStyle name="Heading" xfId="188" xr:uid="{5837C8E7-E8F7-4B5A-AFD0-01AF38EAA282}"/>
+    <cellStyle name="Heading 1 2" xfId="189" xr:uid="{209321B4-9C5A-4EDB-A85D-010D1C6C4025}"/>
+    <cellStyle name="Heading 2 2" xfId="190" xr:uid="{F2B40050-2B0C-4441-82A4-7207EE99CE0F}"/>
+    <cellStyle name="Heading 3 2" xfId="191" xr:uid="{81A82C4F-F140-4055-B559-5F1DA28E4FE6}"/>
+    <cellStyle name="Heading 4 2" xfId="192" xr:uid="{363D0A0E-394F-4ACF-9AEC-36F2FF4285FE}"/>
+    <cellStyle name="Heading 5" xfId="193" xr:uid="{9735A0D9-49F9-4F43-B1E1-07F6390141C9}"/>
+    <cellStyle name="Heading 5 2" xfId="194" xr:uid="{7EF475A1-449B-4A99-A63B-07A42C630994}"/>
+    <cellStyle name="Heading 5 3" xfId="195" xr:uid="{B06F861F-3186-4672-BD67-BA7C134EDB89}"/>
+    <cellStyle name="Heading 6" xfId="196" xr:uid="{CD4E07C6-78B8-4976-B65B-D56E2685F819}"/>
+    <cellStyle name="Heading 7" xfId="197" xr:uid="{83D6FB20-4B5C-493D-9A52-21C6458675D6}"/>
+    <cellStyle name="Heading 8" xfId="198" xr:uid="{8F8CF25E-35E7-409D-94DA-2045C953D6C4}"/>
+    <cellStyle name="Hyperlink 2" xfId="199" xr:uid="{54139120-04F5-42FC-9462-C003E1986763}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="200" xr:uid="{48F7E21A-22F7-4106-9829-490EDBC17145}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="201" xr:uid="{CD292847-7858-4994-A687-F4394335168A}"/>
+    <cellStyle name="Hyperlink 3" xfId="202" xr:uid="{47346114-4E7D-421E-8E5B-CAD9298EF1F3}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="203" xr:uid="{A69C5B14-0A01-48C5-8ED5-F59D4C0FC700}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="204" xr:uid="{84B27BB8-98FA-486C-BD88-C87CE7476555}"/>
+    <cellStyle name="Hyperlink 4" xfId="205" xr:uid="{135B67FB-4C8A-42BC-8147-4182942CE6C0}"/>
+    <cellStyle name="Hyperlink 5" xfId="206" xr:uid="{5982607E-783F-41BF-8022-19D668C5E391}"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Input 2" xfId="207" xr:uid="{ADBE3D66-9EA4-40D2-9E07-8457B40A3243}"/>
+    <cellStyle name="InputCells12_BBorder_CRFReport-template" xfId="208" xr:uid="{93AA586B-8231-4849-BC5D-92B45AF374F5}"/>
+    <cellStyle name="Linked Cell 2" xfId="209" xr:uid="{018D4571-55C0-4E4E-8765-5F54F4EDF1A3}"/>
+    <cellStyle name="Linked Cell 2 2" xfId="210" xr:uid="{0DC4DCDE-43F6-4C20-8E3B-71B6E7053BB4}"/>
     <cellStyle name="Migliaia_tab emissioni" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Milliers [0]_03tabmat" xfId="211" xr:uid="{D069D6F0-87B6-41EA-8841-BCAACABDC989}"/>
+    <cellStyle name="Milliers_03tabmat" xfId="212" xr:uid="{56C8511F-6AE1-4288-9D45-C390DEACAA67}"/>
+    <cellStyle name="Monétaire [0]_03tabmat" xfId="213" xr:uid="{DA8985CB-13FD-46E2-BCD8-AC96ADDCED98}"/>
+    <cellStyle name="Monétaire_03tabmat" xfId="214" xr:uid="{9027D166-9DE4-471E-A01E-B4338383263F}"/>
+    <cellStyle name="Neutral 2" xfId="216" xr:uid="{3473118E-75EB-4DBD-9BE5-940B4A0948AF}"/>
+    <cellStyle name="Neutral 3" xfId="433" xr:uid="{BBE232BC-546C-4ADB-BDD7-42A3DE184502}"/>
+    <cellStyle name="Neutral 4" xfId="215" xr:uid="{12771754-90E5-45D6-B585-00832A97F248}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 10 2" xfId="217" xr:uid="{5E23A33B-9CCC-4EB8-A550-3D526F9B619C}"/>
+    <cellStyle name="Normal 10 2 2" xfId="218" xr:uid="{65CF61D6-E2E4-4E65-9A9F-D48E6BF4FCDA}"/>
+    <cellStyle name="Normal 10 2 2 2" xfId="219" xr:uid="{BAE87697-234E-4794-8AE0-6DCD5944C57A}"/>
+    <cellStyle name="Normal 10 3" xfId="220" xr:uid="{FAFF54BE-976D-4DD9-9584-B805507984E4}"/>
+    <cellStyle name="Normal 10 4" xfId="221" xr:uid="{F5D8639D-1C8F-4361-8FBA-73C80B42536F}"/>
+    <cellStyle name="Normal 10 5" xfId="222" xr:uid="{2A71AA13-EC7C-4BA3-BDDB-403373EDE908}"/>
+    <cellStyle name="Normal 10 6" xfId="223" xr:uid="{EB056CCF-C079-4B83-A2C4-A693EB7658AE}"/>
+    <cellStyle name="Normal 10 7" xfId="224" xr:uid="{6ADD701A-1E22-4105-BA58-6B6DA6D2468A}"/>
+    <cellStyle name="Normal 10 8" xfId="225" xr:uid="{1C3C79FB-516B-4A55-A075-F9458E16F1EC}"/>
+    <cellStyle name="Normal 11" xfId="226" xr:uid="{B8D85C57-23AB-4AAC-9A56-B2B66107B28B}"/>
+    <cellStyle name="Normal 12" xfId="227" xr:uid="{C6A59732-D370-430A-B551-C54ED515AED9}"/>
+    <cellStyle name="Normal 12 2" xfId="228" xr:uid="{01C26082-A3F7-49FB-9AA2-5391948818CB}"/>
+    <cellStyle name="Normal 12 2 2" xfId="229" xr:uid="{E26D1DF5-A055-4BB2-98CD-C576423B8882}"/>
+    <cellStyle name="Normal 12 3" xfId="230" xr:uid="{AEB25FD3-342F-450D-B8D4-FF15E77E2D0C}"/>
+    <cellStyle name="Normal 13" xfId="231" xr:uid="{CB939421-A960-41A3-8F6E-DB7C53D73B08}"/>
+    <cellStyle name="Normal 14" xfId="232" xr:uid="{D807E154-E1FC-4731-AEB1-B81DB02AC395}"/>
+    <cellStyle name="Normal 15" xfId="233" xr:uid="{E64C5984-24D2-49CC-A3CE-DF19A2406424}"/>
+    <cellStyle name="Normal 16" xfId="234" xr:uid="{E016DADF-960F-4294-9495-5E9CAA168EE1}"/>
+    <cellStyle name="Normal 17" xfId="235" xr:uid="{BCF916B0-39EB-4890-9F11-1E4BF0567103}"/>
+    <cellStyle name="Normal 18" xfId="236" xr:uid="{4087F641-2ED8-497A-BE94-C6D268A904E7}"/>
+    <cellStyle name="Normal 19" xfId="237" xr:uid="{73FFA740-4BE4-4E5E-9AD2-B6004954AF20}"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 10" xfId="238" xr:uid="{A2CB5665-6692-411B-A8A3-574C3F37C755}"/>
+    <cellStyle name="Normal 2 11" xfId="239" xr:uid="{379663F6-DD83-4EDA-A0E9-6E015D620F24}"/>
+    <cellStyle name="Normal 2 2" xfId="240" xr:uid="{B07E721A-8467-42FF-90B5-6B98423AA4BA}"/>
+    <cellStyle name="Normal 2 2 2" xfId="241" xr:uid="{39C980DE-7C3B-4D97-9D12-3633A3B731BF}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="242" xr:uid="{F4BC1175-F184-4B0A-8077-9F69EBC38A12}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="243" xr:uid="{9C648A78-7AE1-42A5-9464-9F3459AA9F07}"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="244" xr:uid="{EFF86C67-D2C1-4A1F-94E2-0700302C7033}"/>
+    <cellStyle name="Normal 2 2 2 5" xfId="245" xr:uid="{2B990C32-B47E-4B23-8002-ACFCEE8E2466}"/>
+    <cellStyle name="Normal 2 2 2 6" xfId="246" xr:uid="{E0FEAB12-8375-4B22-B3A3-4C890EDF5F74}"/>
+    <cellStyle name="Normal 2 2 2 7" xfId="247" xr:uid="{0EC6C5EB-E922-4165-80F8-F5D38DB2B191}"/>
+    <cellStyle name="Normal 2 2 2 7 2" xfId="248" xr:uid="{96B83D86-3057-4C87-85ED-61388988249E}"/>
+    <cellStyle name="Normal 2 2 3" xfId="249" xr:uid="{69C4C7B9-8A0A-4211-B02F-92BFB1714558}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="250" xr:uid="{4D65E3BA-8133-42B8-96D1-13F1068FE8B3}"/>
+    <cellStyle name="Normal 2 2 3 2 2" xfId="251" xr:uid="{3F6C7369-E71F-4FF9-8A55-B68514A7F64A}"/>
+    <cellStyle name="Normal 2 2 4" xfId="252" xr:uid="{B56B9E9D-0900-41C0-8E14-31FA842A458B}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="253" xr:uid="{339EFDAC-4B1A-434C-985C-A49447332D86}"/>
+    <cellStyle name="Normal 2 2 4 2 2" xfId="254" xr:uid="{81653B86-A94E-4058-BB7D-5E15B37E584E}"/>
+    <cellStyle name="Normal 2 2 5" xfId="255" xr:uid="{545635AE-4213-4396-8BE1-3482A6F90E1E}"/>
+    <cellStyle name="Normal 2 2 5 2" xfId="256" xr:uid="{8FD496C7-6C78-42DE-BCB0-B23066E6A231}"/>
+    <cellStyle name="Normal 2 2 5 2 2" xfId="257" xr:uid="{921D90F8-94D7-4127-92DC-F5CD4B22A257}"/>
+    <cellStyle name="Normal 2 2 6" xfId="258" xr:uid="{2367F45D-8D0D-47DA-BD80-17DA79069B75}"/>
+    <cellStyle name="Normal 2 2 6 2" xfId="259" xr:uid="{9B59ED5F-9D01-4220-8DF5-4DBB7489D856}"/>
+    <cellStyle name="Normal 2 2 6 2 2" xfId="260" xr:uid="{014A4044-CAED-4459-8940-98D103A7CE8C}"/>
+    <cellStyle name="Normal 2 2 7" xfId="261" xr:uid="{8DFFFC4C-8F91-4F28-B677-1F8C94F69E74}"/>
     <cellStyle name="Normal 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="263" xr:uid="{EF397B03-E69E-4393-B9A5-2429EFAFB690}"/>
+    <cellStyle name="Normal 2 3 2 2" xfId="264" xr:uid="{1194E1A2-9F4B-4076-A309-7AA0243D928F}"/>
+    <cellStyle name="Normal 2 3 3" xfId="265" xr:uid="{60690BC4-55A4-4149-98C6-E6987FDFDBBD}"/>
+    <cellStyle name="Normal 2 3 4" xfId="266" xr:uid="{1F348405-4AE0-497D-945F-F2A75B456598}"/>
+    <cellStyle name="Normal 2 3 5" xfId="267" xr:uid="{B62DA306-E539-427F-B2C6-F90C31513124}"/>
+    <cellStyle name="Normal 2 3 6" xfId="262" xr:uid="{8364EBD7-B563-4D88-B696-542C7EB58831}"/>
+    <cellStyle name="Normal 2 4" xfId="268" xr:uid="{E282A00F-1C64-49ED-889A-B658DFA691EA}"/>
+    <cellStyle name="Normal 2 4 2" xfId="269" xr:uid="{8FF87966-15D2-4F35-AAA5-A00701240040}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="270" xr:uid="{2F4EC0BB-C8E1-45A9-9C2B-C6080E597C3A}"/>
+    <cellStyle name="Normal 2 5" xfId="271" xr:uid="{BFB1FA22-3683-49D8-ACF9-28103442EC16}"/>
+    <cellStyle name="Normal 2 5 2" xfId="272" xr:uid="{4F169D62-33FA-4B18-A0A2-83C3E4D3C06F}"/>
+    <cellStyle name="Normal 2 5 2 2" xfId="273" xr:uid="{28E62E67-F2DA-4046-AEE6-6C5B67E81C97}"/>
+    <cellStyle name="Normal 2 6" xfId="274" xr:uid="{798399F2-A8F0-461D-951B-B6D876FD22D2}"/>
+    <cellStyle name="Normal 2 6 2" xfId="275" xr:uid="{520575BD-DD33-499E-975C-46765F850391}"/>
+    <cellStyle name="Normal 2 6 2 2" xfId="276" xr:uid="{98835A59-6B3A-4A6B-A977-A8115C4EBB42}"/>
+    <cellStyle name="Normal 2 7" xfId="277" xr:uid="{4BF9CE66-BD85-4479-89B1-4EDCC65546D5}"/>
+    <cellStyle name="Normal 2 7 2" xfId="278" xr:uid="{B4DF1E7A-572C-4F43-9BDA-F4AFD7AEDF6F}"/>
+    <cellStyle name="Normal 2 7 2 2" xfId="279" xr:uid="{B199F240-5420-4244-B37F-01ECE4384F7C}"/>
+    <cellStyle name="Normal 2 8" xfId="280" xr:uid="{47BBAD30-79A0-4573-9FCE-D123EF27F8DF}"/>
+    <cellStyle name="Normal 2 8 2" xfId="281" xr:uid="{ABBB0C8E-9913-4251-BBF6-D6B61E06637C}"/>
+    <cellStyle name="Normal 2 8 2 2" xfId="282" xr:uid="{099057B5-DC8C-4E37-BC05-CBD6E6CD8C4A}"/>
+    <cellStyle name="Normal 2 9" xfId="283" xr:uid="{35768B71-AAA6-4E3D-B24F-09DF7A231633}"/>
+    <cellStyle name="Normal 2 9 2" xfId="284" xr:uid="{653F164C-0489-4A88-850E-53DF7EF97A9F}"/>
+    <cellStyle name="Normal 2 9 2 2" xfId="285" xr:uid="{224DC8CE-C292-4332-BE1E-946A11820376}"/>
+    <cellStyle name="Normal 20" xfId="286" xr:uid="{957CFC12-89DC-44A1-A5D9-777A4AD10579}"/>
+    <cellStyle name="Normal 21" xfId="287" xr:uid="{CFA96C5F-57F9-4D9D-8BE4-11771577C952}"/>
+    <cellStyle name="Normal 22" xfId="288" xr:uid="{77048D1F-DA63-4FFE-8ED5-E844809C69F0}"/>
+    <cellStyle name="Normal 23" xfId="289" xr:uid="{10E55645-CDDE-475B-A48C-8043902C58B4}"/>
+    <cellStyle name="Normal 24" xfId="290" xr:uid="{140F2EB0-F996-4A82-8547-A3F90E6713F3}"/>
+    <cellStyle name="Normal 25" xfId="291" xr:uid="{33A86F0A-AA34-4CB9-98D1-F69CFEE1AB82}"/>
+    <cellStyle name="Normal 26" xfId="292" xr:uid="{01143E01-5F55-4F23-953F-B485CCD583C6}"/>
+    <cellStyle name="Normal 27" xfId="293" xr:uid="{2123D332-BBD5-4494-B90C-5D5FDFB532B0}"/>
+    <cellStyle name="Normal 28" xfId="294" xr:uid="{6CED3612-B6BD-4886-89E4-491BC79F6914}"/>
+    <cellStyle name="Normal 28 2" xfId="295" xr:uid="{D7ED7E38-BD5A-47FE-824C-DF8467A190FA}"/>
+    <cellStyle name="Normal 29" xfId="296" xr:uid="{901CEEEE-3DF4-4320-9EB2-AD3BE9F6BF1F}"/>
+    <cellStyle name="Normal 3" xfId="297" xr:uid="{24521981-EB97-4BCA-B370-84FC7FF3D74C}"/>
+    <cellStyle name="Normal 3 2" xfId="298" xr:uid="{904BFC1E-1E30-4BDC-AE19-716C94F1D9FF}"/>
+    <cellStyle name="Normal 3 2 2" xfId="299" xr:uid="{1763282E-13B3-425E-B918-3B0E56ABE4FD}"/>
+    <cellStyle name="Normal 3 2 3" xfId="300" xr:uid="{791120E6-3548-46CA-9C4D-E8C24F6CD698}"/>
+    <cellStyle name="Normal 3 2 4" xfId="301" xr:uid="{1BBFB707-A3A5-4F28-A4B2-5FF704FC9F3C}"/>
+    <cellStyle name="Normal 3 2 5" xfId="302" xr:uid="{B70E0A45-AD84-405A-80F4-ADEFD0760E4F}"/>
+    <cellStyle name="Normal 3 3" xfId="303" xr:uid="{C34D7CCA-AE62-4E35-96E4-768F52135DA6}"/>
+    <cellStyle name="Normal 3 3 2" xfId="304" xr:uid="{94F7B018-19C6-4D99-B5E3-93DB7792C0E9}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="305" xr:uid="{3B6AA64D-309C-418E-BDCC-50134B5E6300}"/>
+    <cellStyle name="Normal 3 4" xfId="306" xr:uid="{00FD89AC-D53F-4A0C-8D9B-FFBD295C8F70}"/>
+    <cellStyle name="Normal 3 4 2" xfId="307" xr:uid="{5956DCCA-B934-4DD8-A224-98116798A280}"/>
+    <cellStyle name="Normal 3 4 2 2" xfId="308" xr:uid="{4589D0C5-FCB7-4933-8F16-2154CE1759FD}"/>
+    <cellStyle name="Normal 3 5" xfId="309" xr:uid="{4C03C972-B8DA-4C54-858D-96E3820323BE}"/>
+    <cellStyle name="Normal 3 6" xfId="310" xr:uid="{DB4EA277-0A8B-4DB8-83B9-F25ED4F61156}"/>
+    <cellStyle name="Normal 3 7" xfId="311" xr:uid="{401189D3-EB63-4BA3-8A86-ACE57BF06750}"/>
+    <cellStyle name="Normal 30" xfId="312" xr:uid="{5AC4DAB5-CB65-4F82-8C77-09CBC8438C78}"/>
+    <cellStyle name="Normal 31" xfId="313" xr:uid="{70BD2639-496D-4084-9B87-6EAB8DC09F33}"/>
+    <cellStyle name="Normal 32" xfId="314" xr:uid="{9B175D64-4314-4C53-9B2D-5806071EA66F}"/>
+    <cellStyle name="Normal 33" xfId="315" xr:uid="{2846708F-5052-4723-B95C-21A84B3FE1E3}"/>
+    <cellStyle name="Normal 34" xfId="316" xr:uid="{22FF1989-436B-44D3-80EB-BD4E228F406B}"/>
+    <cellStyle name="Normal 35" xfId="317" xr:uid="{4460A6B5-C481-42E0-96B7-E6684F42D800}"/>
+    <cellStyle name="Normal 35 2" xfId="318" xr:uid="{5B614138-8333-4D8B-9E51-4E96DF42FCD2}"/>
+    <cellStyle name="Normal 36" xfId="319" xr:uid="{78C26195-0B70-4818-BED7-3EAD9BF10ACE}"/>
+    <cellStyle name="Normal 37" xfId="431" xr:uid="{4CB1B100-6011-45D1-88A3-C7293D98A35D}"/>
+    <cellStyle name="Normal 38" xfId="432" xr:uid="{C313E2B6-ED1D-45EA-8AC6-333EA705D0BE}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4 2" xfId="321" xr:uid="{43604456-228E-4CA7-AEDA-430027221378}"/>
+    <cellStyle name="Normal 4 2 2" xfId="322" xr:uid="{4AFE8A2D-9F2E-4D60-B588-B2583FC8DBF1}"/>
+    <cellStyle name="Normal 4 2 3" xfId="323" xr:uid="{F36FE0F6-54D3-4622-87DC-40C66E1BEE2B}"/>
+    <cellStyle name="Normal 4 2 3 2" xfId="324" xr:uid="{382AC15C-1BB5-4B05-9BBC-380B9C736556}"/>
+    <cellStyle name="Normal 4 2 3 2 2" xfId="325" xr:uid="{CE831CF9-0616-4D0E-BCF2-AC60AEC81163}"/>
+    <cellStyle name="Normal 4 2 3 3" xfId="326" xr:uid="{16FD7077-9E07-4947-A20B-C3F0D732E3FE}"/>
+    <cellStyle name="Normal 4 2 4" xfId="327" xr:uid="{40B46A11-3D2F-48F5-B885-76270CC88E99}"/>
+    <cellStyle name="Normal 4 2 5" xfId="328" xr:uid="{18761A99-E4BB-47C2-9D38-FCE3B524306E}"/>
+    <cellStyle name="Normal 4 2 6" xfId="329" xr:uid="{8D7AABD9-1A0B-4920-B544-D6D3082DF61F}"/>
+    <cellStyle name="Normal 4 3" xfId="330" xr:uid="{670979F6-2805-4596-9573-C29F5482A13C}"/>
+    <cellStyle name="Normal 4 3 2" xfId="331" xr:uid="{0BC83037-8972-4148-8D7C-1E609AAC1C6C}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="332" xr:uid="{3E878F4F-11DC-4CBF-9078-D76C32005E0D}"/>
+    <cellStyle name="Normal 4 4" xfId="333" xr:uid="{26198672-4652-4467-B571-DCDC498152F2}"/>
+    <cellStyle name="Normal 4 5" xfId="334" xr:uid="{0242A750-D838-4C0F-A4E3-27B7D9A928BA}"/>
+    <cellStyle name="Normal 4 6" xfId="335" xr:uid="{3D75DFE4-1E87-48C4-A2C6-5ED8A09127CC}"/>
+    <cellStyle name="Normal 4 7" xfId="336" xr:uid="{8995BD0D-85C1-4950-8DE1-DD2EB366F67D}"/>
+    <cellStyle name="Normal 4 8" xfId="337" xr:uid="{96364898-A64D-4AF4-80F7-E7F1529F2E8A}"/>
+    <cellStyle name="Normal 4 9" xfId="320" xr:uid="{0CEE7847-B6F2-4FBC-B8F3-72FD13740A1B}"/>
+    <cellStyle name="Normal 5" xfId="338" xr:uid="{FD37DAE5-C2CB-41C7-971B-B44B654F9B2D}"/>
+    <cellStyle name="Normal 5 2" xfId="339" xr:uid="{C350000F-0642-4F14-826D-F02B8797E82E}"/>
+    <cellStyle name="Normal 5 2 2" xfId="340" xr:uid="{0108EBE8-D2DB-4B4C-B9BA-0D50CC275440}"/>
+    <cellStyle name="Normal 5 3" xfId="341" xr:uid="{9A35E56A-0F0B-4D8B-945B-A2989DBEA576}"/>
+    <cellStyle name="Normal 5 4" xfId="342" xr:uid="{C6A6C243-FB79-48B4-AF3F-4AC8A12D62D5}"/>
+    <cellStyle name="Normal 6" xfId="343" xr:uid="{621BB2D9-6DC0-48A3-8C38-277AF193E797}"/>
+    <cellStyle name="Normal 6 2" xfId="344" xr:uid="{E6DFA535-642D-498B-B484-A4DB4D819BC8}"/>
+    <cellStyle name="Normal 6 3" xfId="345" xr:uid="{DD46F5AF-F1BD-4138-B22F-6FD0C82ED880}"/>
+    <cellStyle name="Normal 6 4" xfId="346" xr:uid="{E51B60F8-C7BE-4997-A8DE-7A23FF679497}"/>
+    <cellStyle name="Normal 7" xfId="347" xr:uid="{6395B263-DEEF-4C9B-8C05-4D38E5A2E4D4}"/>
+    <cellStyle name="Normal 7 2" xfId="348" xr:uid="{F96A6BAC-025E-4619-B16D-B788404F5B03}"/>
+    <cellStyle name="Normal 7 2 2" xfId="349" xr:uid="{36DD5FB6-27A1-4C03-9831-DA04D6CEB107}"/>
+    <cellStyle name="Normal 7 2 2 2" xfId="350" xr:uid="{059D4154-E43E-4578-B3DB-ED2E0F0A7C2D}"/>
+    <cellStyle name="Normal 7 3" xfId="351" xr:uid="{5F57AEFD-D5D3-490B-80E4-A2B83B99B8C9}"/>
+    <cellStyle name="Normal 7 3 2" xfId="352" xr:uid="{FC4D6656-EDCB-4765-905E-734D0E94333F}"/>
+    <cellStyle name="Normal 7 3 2 2" xfId="353" xr:uid="{7CFB5574-F846-4B49-A31B-FD164C3AA5A7}"/>
+    <cellStyle name="Normal 7 4" xfId="354" xr:uid="{179C3992-7E13-4183-93C4-7EA6109492B9}"/>
+    <cellStyle name="Normal 8" xfId="355" xr:uid="{1502FF5F-F3D6-476F-A45B-11207F9D53A8}"/>
+    <cellStyle name="Normal 8 2" xfId="356" xr:uid="{D4F6F27E-8B25-45CD-9D00-8AEF1513EB0B}"/>
+    <cellStyle name="Normal 8 2 2" xfId="357" xr:uid="{872AF0F5-906E-4B33-9FAA-A86A4D8B8996}"/>
+    <cellStyle name="Normal 8 2 2 2" xfId="358" xr:uid="{1B2A8113-D4F2-45BB-9338-FDE3D76F0D8E}"/>
+    <cellStyle name="Normal 8 3" xfId="359" xr:uid="{DDE3F04A-0BAD-4B80-B61D-F2FB16EC15E2}"/>
+    <cellStyle name="Normal 8 3 2" xfId="360" xr:uid="{67483445-2C8F-41D5-A5BB-CEC9BDF0980F}"/>
+    <cellStyle name="Normal 8 4" xfId="361" xr:uid="{FFC607A8-5366-4555-A939-D4A8A69527CF}"/>
+    <cellStyle name="Normal 8 5" xfId="362" xr:uid="{9BFF0D13-499F-4DC0-B5DA-04082D64324C}"/>
+    <cellStyle name="Normal 8 6" xfId="363" xr:uid="{9B13AD22-D318-40D1-B21E-C89BD3B982BE}"/>
+    <cellStyle name="Normal 9" xfId="364" xr:uid="{0EE43C7F-7F23-4924-99BE-2BF40C4A8E75}"/>
+    <cellStyle name="Normal 9 2" xfId="365" xr:uid="{D1A650F4-FB81-429D-B6A8-87BBDA749CCF}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="366" xr:uid="{67E2D864-7627-471D-8E67-870BA6474BFB}"/>
+    <cellStyle name="Normal GHG-Shade 2" xfId="367" xr:uid="{F3BA17F7-0469-48C9-9EA7-74FC34121AF5}"/>
     <cellStyle name="Normale_B2020" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Note 2" xfId="368" xr:uid="{C6D81C95-0446-41AC-92F6-68CAC48F679F}"/>
+    <cellStyle name="Note 2 2" xfId="369" xr:uid="{28F034E3-3541-4E38-8BD1-9CE1E6D57517}"/>
+    <cellStyle name="Note 2 2 2" xfId="370" xr:uid="{92F99DDC-3F08-4912-BF5A-C4441F2ED6EA}"/>
+    <cellStyle name="Number [0.0]" xfId="371" xr:uid="{1DD9D6E4-A81B-4916-97D4-B720340F357C}"/>
+    <cellStyle name="Number [0.0] 2" xfId="372" xr:uid="{A6B69A53-53DF-4A3B-B7F8-507020B5182B}"/>
+    <cellStyle name="Output 2" xfId="373" xr:uid="{F0D2A7D2-7239-476D-AB03-FDA682DE1056}"/>
+    <cellStyle name="Percent 2" xfId="374" xr:uid="{63F97EA5-FBD4-4D1A-8421-D9575FC11084}"/>
+    <cellStyle name="Percent 2 2" xfId="375" xr:uid="{490B3A14-0BE4-4A17-8894-C5480BB64809}"/>
+    <cellStyle name="Percent 2 2 2" xfId="376" xr:uid="{FC974088-BBA2-4853-9864-F771E1AEF7BB}"/>
+    <cellStyle name="Percent 2 2 2 2" xfId="377" xr:uid="{B8A1227A-3FD4-4C21-B7AC-148C07598F79}"/>
+    <cellStyle name="Percent 2 2 2 3" xfId="378" xr:uid="{97242770-FC4F-4E38-A96A-81CD9C4FB339}"/>
+    <cellStyle name="Percent 2 2 3" xfId="379" xr:uid="{8E19266F-80E9-40B8-AD8C-ADE924BD99EF}"/>
+    <cellStyle name="Percent 2 3" xfId="380" xr:uid="{778CF011-A09D-473E-BA31-908BADE44F36}"/>
+    <cellStyle name="Percent 2 3 2" xfId="381" xr:uid="{A25F8D6C-AA1D-40A4-8E21-5DD627659A2F}"/>
+    <cellStyle name="Percent 2 3 3" xfId="382" xr:uid="{DE7C4837-4B76-48A1-99B8-1E2CF26D80EF}"/>
+    <cellStyle name="Percent 2 4" xfId="383" xr:uid="{26F7C18A-8E06-400A-9124-C03086283138}"/>
+    <cellStyle name="Percent 2 5" xfId="384" xr:uid="{DA5895A4-C2A5-408C-BD22-76978EBACA1B}"/>
+    <cellStyle name="Percent 3" xfId="385" xr:uid="{695C9E63-7697-4BAC-950E-92857EF46465}"/>
+    <cellStyle name="Percent 3 2" xfId="386" xr:uid="{92A6EBA9-50A2-44DE-90C9-0FED9D1BFF23}"/>
+    <cellStyle name="Percent 3 2 2" xfId="387" xr:uid="{C3782124-92D9-4378-B313-15D06BD31720}"/>
+    <cellStyle name="Percent 3 2 2 2" xfId="388" xr:uid="{B57D6BC3-BB4C-4B26-BBB8-49891D252E2F}"/>
+    <cellStyle name="Percent 3 3" xfId="389" xr:uid="{F24814BF-34AC-409F-BF4D-7DB164724132}"/>
+    <cellStyle name="Percent 4" xfId="434" xr:uid="{0EC2EFD1-8C6A-4AC6-BAE7-E420BAD76999}"/>
+    <cellStyle name="Pilkku_Layo9704" xfId="390" xr:uid="{62CA82A4-6518-4B90-AD95-EA92E43D1570}"/>
+    <cellStyle name="Publication_style" xfId="391" xr:uid="{E2606C02-7E1F-4791-BA83-74F22E42C6C3}"/>
+    <cellStyle name="Pyör. luku_Layo9704" xfId="392" xr:uid="{B7B85271-2CA4-4B31-B1F1-49BF0B7E7795}"/>
+    <cellStyle name="Pyör. valuutta_Layo9704" xfId="393" xr:uid="{81F60F21-DCA1-4E70-ACD1-9B97541508E6}"/>
+    <cellStyle name="Refdb standard" xfId="394" xr:uid="{20021EA1-9E65-43E5-820A-0C264C1A593C}"/>
+    <cellStyle name="Refdb standard 2" xfId="395" xr:uid="{513DB2B2-0F84-4C69-A3EB-DB3F23FE520D}"/>
+    <cellStyle name="Shade" xfId="396" xr:uid="{A9419E0F-4C64-41EA-A62C-5B4034FFCC09}"/>
+    <cellStyle name="Source" xfId="397" xr:uid="{7EAD26F6-39A3-4E1D-98F5-4BB9C030D876}"/>
     <cellStyle name="Standard_Sce_D_Extraction" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Style 1" xfId="398" xr:uid="{D679BF64-5113-4506-854A-F35BEEC8F7F1}"/>
+    <cellStyle name="Style 21" xfId="399" xr:uid="{05A00120-05E1-46F1-8848-770CEFBEDF8F}"/>
+    <cellStyle name="Style 21 2" xfId="400" xr:uid="{E3B3CD1F-E2DB-4504-B46A-CDAF3F8FF048}"/>
+    <cellStyle name="Style 21 2 2" xfId="401" xr:uid="{2E62587A-D12B-425C-BFB2-E0C5B776A25A}"/>
+    <cellStyle name="Style 21 2 2 2" xfId="402" xr:uid="{0EC4374F-FC2F-404C-9CB8-3ECA5692EB39}"/>
+    <cellStyle name="Style 21 3" xfId="403" xr:uid="{5FBE22DA-D576-428B-8578-00B6C3E3C5D2}"/>
+    <cellStyle name="Style 21 3 2" xfId="404" xr:uid="{F148717D-00C3-48FD-AFC9-F32B026548D2}"/>
+    <cellStyle name="Style 22" xfId="405" xr:uid="{CC6A3280-C6AA-4B45-9EA8-9F11DCB22818}"/>
+    <cellStyle name="Style 22 2" xfId="406" xr:uid="{17FF6D09-CBDE-4420-B28F-AC86E7BFCD7D}"/>
+    <cellStyle name="Style 22 2 2" xfId="407" xr:uid="{A307AD5D-002D-4C86-847C-9E7B76F9EC6F}"/>
+    <cellStyle name="Style 22 3" xfId="408" xr:uid="{E13B63EC-43E0-4FBA-B5F1-E87299744E2E}"/>
+    <cellStyle name="Style 23" xfId="409" xr:uid="{F59F5420-9D2A-4919-A970-049F77D7F5C2}"/>
+    <cellStyle name="Style 24" xfId="410" xr:uid="{507AB511-4666-4BF6-A9AC-136F35542F8A}"/>
+    <cellStyle name="Style 24 2" xfId="411" xr:uid="{390DEC42-DA0E-4DAD-BE11-3887BA9E357E}"/>
+    <cellStyle name="Style 24 2 2" xfId="412" xr:uid="{6530B8BD-4A91-479C-9C6D-59C59D50083A}"/>
+    <cellStyle name="Style 24 3" xfId="413" xr:uid="{4F5C03CD-AD66-4F2A-96DB-D19A9CFB00A8}"/>
+    <cellStyle name="Style 25" xfId="414" xr:uid="{511BFB24-EDC6-4530-AF58-F71FB60D9200}"/>
+    <cellStyle name="Style 25 2" xfId="415" xr:uid="{F6E859EE-2608-473D-9F89-7F884DEC4B17}"/>
+    <cellStyle name="Style 25 2 2" xfId="416" xr:uid="{46816556-038A-41EC-9C5B-D42A25708A25}"/>
+    <cellStyle name="Style 25 2 2 2" xfId="417" xr:uid="{3E4C8CD7-B20B-45EE-8CB9-6A2B27C14C52}"/>
+    <cellStyle name="Style 25 3" xfId="418" xr:uid="{DFBE6E3E-6A22-4B41-B7BA-6BE6C247EDF2}"/>
+    <cellStyle name="Style 25 3 2" xfId="419" xr:uid="{924F9C42-1389-4534-9D7F-61AF179F7421}"/>
+    <cellStyle name="Style 26" xfId="420" xr:uid="{E28E87B2-06EA-4D9B-8CB6-9CADBE06C091}"/>
+    <cellStyle name="Table" xfId="421" xr:uid="{60F7C0DF-0074-48CA-A489-A77F58206EB1}"/>
+    <cellStyle name="Table heading" xfId="422" xr:uid="{2E513286-8484-4940-AF76-B6C894856B66}"/>
+    <cellStyle name="Title 2" xfId="423" xr:uid="{3E002ECF-F4D5-4CE0-AC31-4D2387EF6B9D}"/>
+    <cellStyle name="Total 2" xfId="424" xr:uid="{CC54704E-DBD6-4F15-9A5E-E421BAF1D0D0}"/>
+    <cellStyle name="Unit" xfId="425" xr:uid="{F161BDB4-2ACF-420D-9E00-2F09F0F68510}"/>
+    <cellStyle name="Unit 2" xfId="426" xr:uid="{9D7134D5-F83A-48DA-80B2-48DCBF982465}"/>
+    <cellStyle name="Unit 2 2" xfId="427" xr:uid="{8A22BE7E-7A7E-4962-B3F3-D399DB6372D5}"/>
+    <cellStyle name="Valuutta_Layo9704" xfId="428" xr:uid="{CDD1C12A-BD4B-46E4-8EC1-4D22F995CF7D}"/>
+    <cellStyle name="Warning Text 2" xfId="429" xr:uid="{D7B25E85-3EB4-4958-AC41-CCBB0068353C}"/>
+    <cellStyle name="Обычный_2++_CRFReport-template" xfId="430" xr:uid="{828E4225-8B4A-4B89-B7AA-B8DC72B4CA87}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3346,6 +5156,85 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729C3DED-F819-404D-B039-B159FD2D9A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8467725" y="114300"/>
+          <a:ext cx="4238625" cy="5187311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -3991,7 +5880,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
@@ -4000,257 +5889,255 @@
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="N1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="N2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="6"/>
       <c r="B5" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="6"/>
       <c r="B6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="6"/>
       <c r="B7" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -4259,2294 +6146,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:E39"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2005</v>
-      </c>
-      <c r="E4">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="str">
-        <f>E27</f>
-        <v>Def4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="128" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="129" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="130" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14">
-        <v>5</v>
-      </c>
-      <c r="D15" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14">
-        <v>5</v>
-      </c>
-      <c r="D16" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14">
-        <v>5</v>
-      </c>
-      <c r="D17" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="132" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" s="128" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="128" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="128" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28">
-        <f>MAX(B29:B39)+4</f>
-        <v>2011</v>
-      </c>
-      <c r="C28">
-        <f>MAX(C29:C39)+4</f>
-        <v>2019</v>
-      </c>
-      <c r="D28">
-        <f>MAX(D29:D39)+4</f>
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="14">
-        <v>2005</v>
-      </c>
-      <c r="C29" s="14">
-        <v>2005</v>
-      </c>
-      <c r="D29" s="14">
-        <v>2005</v>
-      </c>
-      <c r="E29" s="14">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="14">
-        <v>2007</v>
-      </c>
-      <c r="C30" s="14">
-        <v>2006</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2006</v>
-      </c>
-      <c r="E30" s="14">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14">
-        <v>2007</v>
-      </c>
-      <c r="D31" s="14">
-        <v>2007</v>
-      </c>
-      <c r="E31" s="14">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14">
-        <v>2010</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2010</v>
-      </c>
-      <c r="E32" s="14">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14">
-        <v>2015</v>
-      </c>
-      <c r="D33" s="14">
-        <v>2015</v>
-      </c>
-      <c r="E33" s="14">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14">
-        <v>2020</v>
-      </c>
-      <c r="E34" s="14">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14">
-        <v>2030</v>
-      </c>
-      <c r="E35" s="14">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14">
-        <v>2050</v>
-      </c>
-      <c r="E36" s="14">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14">
-        <v>2100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q36"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="str">
-        <f>IF($A$1=1,"~TFM_MIG","~TFM_UPD")</f>
-        <v>~TFM_MIG</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>IF($A$1=1,"Year2","Year")</f>
-        <v>Year2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6">
-        <v>2222</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6">
-        <v>8888</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="C6:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="str">
-        <f>IF(Interpol_Extrapol_Defaults!A1=1,"~TFM_INS-txt","~TFM_INS")</f>
-        <v>~TFM_INS-txt</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:N41"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="125" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2005</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="27">
-        <f>C28</f>
-        <v>9.417808219178081E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="27">
-        <f>D28</f>
-        <v>0.10273972602739725</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="27">
-        <f>E28</f>
-        <v>8.5616438356164379E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="27">
-        <f>F28</f>
-        <v>0.13835616438356163</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="124">
-        <f>G28</f>
-        <v>0.12682648401826482</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="17">
-        <f>H28</f>
-        <v>1.1529680365296802E-2</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="17">
-        <f>I28</f>
-        <v>9.9200913242009123E-2</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="17">
-        <f>J28</f>
-        <v>0.10821917808219178</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="17">
-        <f>K28</f>
-        <v>9.0182648401826472E-3</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="17">
-        <f>L28</f>
-        <v>0.13812785388127852</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="17">
-        <f>M28</f>
-        <v>0.15068493150684931</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="17">
-        <f>N28</f>
-        <v>1.2557077625570776E-2</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="85"/>
-      <c r="C27" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="L27" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="M27" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="87">
-        <f>C38/$F38*$D31</f>
-        <v>9.417808219178081E-2</v>
-      </c>
-      <c r="D28" s="88">
-        <f>D38/$F38*$D31</f>
-        <v>0.10273972602739725</v>
-      </c>
-      <c r="E28" s="88">
-        <f>E38/$F38*$D31</f>
-        <v>8.5616438356164379E-3</v>
-      </c>
-      <c r="F28" s="88">
-        <f>C39/$F39*$D32</f>
-        <v>0.13835616438356163</v>
-      </c>
-      <c r="G28" s="88">
-        <f>D39/$F39*$D32</f>
-        <v>0.12682648401826482</v>
-      </c>
-      <c r="H28" s="88">
-        <f>E39/$F39*$D32</f>
-        <v>1.1529680365296802E-2</v>
-      </c>
-      <c r="I28" s="88">
-        <f>C40/$F40*$D33</f>
-        <v>9.9200913242009123E-2</v>
-      </c>
-      <c r="J28" s="88">
-        <f>D40/$F40*$D33</f>
-        <v>0.10821917808219178</v>
-      </c>
-      <c r="K28" s="88">
-        <f>E40/$F40*$D33</f>
-        <v>9.0182648401826472E-3</v>
-      </c>
-      <c r="L28" s="88">
-        <f>C41/$F41*$D34</f>
-        <v>0.13812785388127852</v>
-      </c>
-      <c r="M28" s="88">
-        <f>D41/$F41*$D34</f>
-        <v>0.15068493150684931</v>
-      </c>
-      <c r="N28" s="89">
-        <f>E41/$F41*$D34</f>
-        <v>1.2557077625570776E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="98">
-        <v>75</v>
-      </c>
-      <c r="D31" s="99">
-        <f>C31/C35</f>
-        <v>0.20547945205479451</v>
-      </c>
-      <c r="E31" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="98">
-        <v>101</v>
-      </c>
-      <c r="D32" s="99">
-        <f>C32/C35</f>
-        <v>0.27671232876712326</v>
-      </c>
-      <c r="E32" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="101"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="98">
-        <v>79</v>
-      </c>
-      <c r="D33" s="99">
-        <f>C33/C35</f>
-        <v>0.21643835616438356</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="101"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="104">
-        <v>110</v>
-      </c>
-      <c r="D34" s="105">
-        <f>C34/C35</f>
-        <v>0.30136986301369861</v>
-      </c>
-      <c r="E34" s="106" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="107"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="91"/>
-      <c r="C35" s="108">
-        <f>SUM(C31:C34)</f>
-        <v>365</v>
-      </c>
-      <c r="D35" s="109">
-        <f>SUM(D31:D34)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="E35" s="110"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="91"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="114" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="115">
-        <v>11</v>
-      </c>
-      <c r="D38" s="116">
-        <v>12</v>
-      </c>
-      <c r="E38" s="115">
-        <v>1</v>
-      </c>
-      <c r="F38" s="108">
-        <f>SUM(C38:E38)</f>
-        <v>24</v>
-      </c>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="118">
-        <v>12</v>
-      </c>
-      <c r="D39" s="119">
-        <v>11</v>
-      </c>
-      <c r="E39" s="118">
-        <v>1</v>
-      </c>
-      <c r="F39" s="108">
-        <f>SUM(C39:E39)</f>
-        <v>24</v>
-      </c>
-      <c r="G39" s="108"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="118">
-        <v>11</v>
-      </c>
-      <c r="D40" s="119">
-        <v>12</v>
-      </c>
-      <c r="E40" s="118">
-        <v>1</v>
-      </c>
-      <c r="F40" s="120">
-        <f>SUM(C40:E40)</f>
-        <v>24</v>
-      </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="122">
-        <v>11</v>
-      </c>
-      <c r="D41" s="123">
-        <v>12</v>
-      </c>
-      <c r="E41" s="122">
-        <v>1</v>
-      </c>
-      <c r="F41" s="120">
-        <f>SUM(C41:E41)</f>
-        <v>24</v>
-      </c>
-      <c r="G41" s="120"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:N39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="12" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="32">
-        <f>TimeSlices!C23</f>
-        <v>9.417808219178081E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="32">
-        <f>TimeSlices!D23</f>
-        <v>0.10273972602739725</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="32">
-        <f>TimeSlices!E23</f>
-        <v>8.5616438356164379E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="32">
-        <f>TimeSlices!F23</f>
-        <v>0.12682648401826482</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="32">
-        <f>TimeSlices!G23</f>
-        <v>0.13835616438356163</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="32">
-        <f>TimeSlices!H23</f>
-        <v>1.1529680365296802E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="32">
-        <f>TimeSlices!I23</f>
-        <v>9.9200913242009123E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="32">
-        <f>TimeSlices!J23</f>
-        <v>0.10821917808219178</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="32">
-        <f>TimeSlices!K23</f>
-        <v>9.0182648401826472E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="32">
-        <f>TimeSlices!L23</f>
-        <v>0.13812785388127852</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="32">
-        <f>TimeSlices!M23</f>
-        <v>0.15068493150684931</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="32">
-        <f>TimeSlices!N23</f>
-        <v>1.2557077625570776E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D16" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" s="41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="44">
-        <f>C35/$F35*$D27</f>
-        <v>9.417808219178081E-2</v>
-      </c>
-      <c r="D23" s="45">
-        <f>D35/$F35*$D27</f>
-        <v>0.10273972602739725</v>
-      </c>
-      <c r="E23" s="45">
-        <f>E35/$F35*$D27</f>
-        <v>8.5616438356164379E-3</v>
-      </c>
-      <c r="F23" s="45">
-        <f>C36/$F36*$D28</f>
-        <v>0.12682648401826482</v>
-      </c>
-      <c r="G23" s="45">
-        <f>D36/$F36*$D28</f>
-        <v>0.13835616438356163</v>
-      </c>
-      <c r="H23" s="45">
-        <f>E36/$F36*$D28</f>
-        <v>1.1529680365296802E-2</v>
-      </c>
-      <c r="I23" s="45">
-        <f>C37/$F37*$D29</f>
-        <v>9.9200913242009123E-2</v>
-      </c>
-      <c r="J23" s="45">
-        <f>D37/$F37*$D29</f>
-        <v>0.10821917808219178</v>
-      </c>
-      <c r="K23" s="45">
-        <f>E37/$F37*$D29</f>
-        <v>9.0182648401826472E-3</v>
-      </c>
-      <c r="L23" s="45">
-        <f>C38/$F38*$D30</f>
-        <v>0.13812785388127852</v>
-      </c>
-      <c r="M23" s="45">
-        <f>D38/$F38*$D30</f>
-        <v>0.15068493150684931</v>
-      </c>
-      <c r="N23" s="46">
-        <f>E38/$F38*$D30</f>
-        <v>1.2557077625570776E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="47"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="56">
-        <v>75</v>
-      </c>
-      <c r="D27" s="57">
-        <f>C27/C31</f>
-        <v>0.20547945205479451</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="56">
-        <v>101</v>
-      </c>
-      <c r="D28" s="57">
-        <f>C28/C31</f>
-        <v>0.27671232876712326</v>
-      </c>
-      <c r="E28" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="56">
-        <v>79</v>
-      </c>
-      <c r="D29" s="57">
-        <f>C29/C31</f>
-        <v>0.21643835616438356</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="62">
-        <v>110</v>
-      </c>
-      <c r="D30" s="63">
-        <f>C30/C31</f>
-        <v>0.30136986301369861</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C31" s="66">
-        <f>SUM(C27:C30)</f>
-        <v>365</v>
-      </c>
-      <c r="D31" s="67">
-        <f>SUM(D27:D30)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="54"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="54"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="70">
-        <v>11</v>
-      </c>
-      <c r="D35" s="40">
-        <v>12</v>
-      </c>
-      <c r="E35" s="70">
-        <v>1</v>
-      </c>
-      <c r="F35" s="66">
-        <f>SUM(C35:E35)</f>
-        <v>24</v>
-      </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="74">
-        <v>11</v>
-      </c>
-      <c r="D36" s="75">
-        <v>12</v>
-      </c>
-      <c r="E36" s="74">
-        <v>1</v>
-      </c>
-      <c r="F36" s="66">
-        <f>SUM(C36:E36)</f>
-        <v>24</v>
-      </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="54"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="74">
-        <v>11</v>
-      </c>
-      <c r="D37" s="75">
-        <v>12</v>
-      </c>
-      <c r="E37" s="74">
-        <v>1</v>
-      </c>
-      <c r="F37" s="76">
-        <f>SUM(C37:E37)</f>
-        <v>24</v>
-      </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="54"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="78">
-        <v>11</v>
-      </c>
-      <c r="D38" s="79">
-        <v>12</v>
-      </c>
-      <c r="E38" s="78">
-        <v>1</v>
-      </c>
-      <c r="F38" s="76">
-        <f>SUM(C38:E38)</f>
-        <v>24</v>
-      </c>
-      <c r="G38" s="76"/>
-      <c r="H38" s="54"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="80"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:K32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="134" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="134"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="134" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="134" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="133">
-        <v>1055.55</v>
-      </c>
-      <c r="K15" s="136" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="134" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="133">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="134" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="134" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="133">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="136" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="134" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="134" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="133">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="134" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="133">
-        <v>1.05555</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="134" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="133">
-        <v>4.1868000000000002E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="134" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="133">
-        <v>41.868000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="134" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="135">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="134" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="134" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="133">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="134" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="134" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" s="133">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="134" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="134" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="133">
-        <v>0.15384600000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="134" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="133">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="134" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="133">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="134" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="133">
-        <v>37.681199999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="134" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="133">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="134" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="134" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="133">
-        <v>2.7777769999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="134" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="133">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="133">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:I9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
@@ -6560,7 +6166,7 @@
     <col min="10" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6569,9 +6175,9 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="15">
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -6580,7 +6186,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="21" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -6589,12 +6195,12 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="18" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -6602,30 +6208,30 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="26.25" thickBot="1">
       <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6634,38 +6240,38 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
         <v>195</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" t="s">
         <v>196</v>
       </c>
-      <c r="E8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" t="s">
         <v>197</v>
       </c>
-      <c r="I8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
         <v>196</v>
       </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H9" t="s">
-        <v>197</v>
-      </c>
       <c r="I9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6677,15 +6283,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EC31CD-0AC2-4117-ADE4-ED9EFDB1D2DC}">
   <dimension ref="B3:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
@@ -6700,524 +6304,524 @@
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="127" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="127" t="s">
+      <c r="D4" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="E4" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="F4" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="G4" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="124" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="127" t="s">
+      <c r="I4" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="127" t="s">
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="E5" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="C14" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="C17" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="C18" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="C19" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="C20" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="127" t="s">
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="C23" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="127" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="127" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="127" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="127" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="127" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="127" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="127" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="127" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="127" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="127" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="127" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="127" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C20" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="127" t="s">
+      <c r="D23" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="D24" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="127" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s">
-        <v>176</v>
-      </c>
-      <c r="J21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C23" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24" s="127" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="127" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="127" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="127" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="127" t="s">
-        <v>205</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:10">
       <c r="C28" t="str">
         <f>LEFT(D28,3)</f>
         <v>ENV</v>
       </c>
-      <c r="D28" s="127" t="s">
-        <v>207</v>
+      <c r="D28" s="124" t="s">
+        <v>206</v>
       </c>
       <c r="E28" t="str">
         <f>C28&amp;" commodity to test trade pcg"</f>
         <v>ENV commodity to test trade pcg</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="C29" t="str">
         <f t="shared" ref="C29:C32" si="0">LEFT(D29,3)</f>
         <v>NRG</v>
       </c>
-      <c r="D29" s="127" t="s">
-        <v>208</v>
+      <c r="D29" s="124" t="s">
+        <v>207</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ref="E29:E32" si="1">C29&amp;" commodity to test trade pcg"</f>
         <v>NRG commodity to test trade pcg</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>MAT</v>
       </c>
-      <c r="D30" s="127" t="s">
-        <v>209</v>
+      <c r="D30" s="124" t="s">
+        <v>208</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
         <v>MAT commodity to test trade pcg</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>FIN</v>
       </c>
-      <c r="D31" s="127" t="s">
-        <v>210</v>
+      <c r="D31" s="124" t="s">
+        <v>209</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
         <v>FIN commodity to test trade pcg</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="D32" s="127" t="s">
-        <v>211</v>
+      <c r="D32" s="124" t="s">
+        <v>210</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
         <v>DEM commodity to test trade pcg</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -7225,4 +6829,2585 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1C332-08E0-4BDF-9CDB-EE774F294B1A}">
+  <dimension ref="B2:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="D11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="D12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="D15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="D16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:E39"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>2005</v>
+      </c>
+      <c r="E4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="str">
+        <f>E27</f>
+        <v>Def4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14">
+        <v>5</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14">
+        <v>5</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14">
+        <v>5</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="125" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="125" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="125" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="125" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28">
+        <f>MAX(B29:B39)+4</f>
+        <v>2011</v>
+      </c>
+      <c r="C28">
+        <f>MAX(C29:C39)+4</f>
+        <v>2019</v>
+      </c>
+      <c r="D28">
+        <f>MAX(D29:D39)+4</f>
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="14">
+        <v>2005</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2005</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2005</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2007</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2006</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2006</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14">
+        <v>2007</v>
+      </c>
+      <c r="D31" s="14">
+        <v>2007</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14">
+        <v>2010</v>
+      </c>
+      <c r="D32" s="14">
+        <v>2010</v>
+      </c>
+      <c r="E32" s="14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="14">
+        <v>2015</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14">
+        <v>2020</v>
+      </c>
+      <c r="E34" s="14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14">
+        <v>2030</v>
+      </c>
+      <c r="E35" s="14">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14">
+        <v>2050</v>
+      </c>
+      <c r="E36" s="14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14">
+        <v>2100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="1" t="str">
+        <f>IF($A$1=1,"~TFM_MIG","~TFM_UPD")</f>
+        <v>~TFM_MIG</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" thickBot="1">
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF($A$1=1,"Year2","Year")</f>
+        <v>Year2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" customHeight="1"/>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:4" ht="15">
+      <c r="B30" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="18">
+      <c r="B32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="13.5" thickBot="1">
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6">
+        <v>2222</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
+        <v>8888</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="C6:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5">
+      <c r="C6" s="1" t="str">
+        <f>IF(Interpol_Extrapol_Defaults!A1=1,"~TFM_INS-txt","~TFM_INS")</f>
+        <v>~TFM_INS-txt</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B3:N41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="15">
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2005</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:8" ht="13.5" customHeight="1">
+      <c r="D8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:8" ht="13.5" customHeight="1">
+      <c r="D9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:14" ht="18">
+      <c r="B24" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="83"/>
+      <c r="C27" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="85">
+        <f>C38/$F38*$D31</f>
+        <v>9.417808219178081E-2</v>
+      </c>
+      <c r="D28" s="86">
+        <f>D38/$F38*$D31</f>
+        <v>0.10273972602739725</v>
+      </c>
+      <c r="E28" s="86">
+        <f>E38/$F38*$D31</f>
+        <v>8.5616438356164379E-3</v>
+      </c>
+      <c r="F28" s="86">
+        <f>C39/$F39*$D32</f>
+        <v>0.13835616438356163</v>
+      </c>
+      <c r="G28" s="86">
+        <f>D39/$F39*$D32</f>
+        <v>0.12682648401826482</v>
+      </c>
+      <c r="H28" s="86">
+        <f>E39/$F39*$D32</f>
+        <v>1.1529680365296802E-2</v>
+      </c>
+      <c r="I28" s="86">
+        <f>C40/$F40*$D33</f>
+        <v>9.9200913242009123E-2</v>
+      </c>
+      <c r="J28" s="86">
+        <f>D40/$F40*$D33</f>
+        <v>0.10821917808219178</v>
+      </c>
+      <c r="K28" s="86">
+        <f>E40/$F40*$D33</f>
+        <v>9.0182648401826472E-3</v>
+      </c>
+      <c r="L28" s="86">
+        <f>C41/$F41*$D34</f>
+        <v>0.13812785388127852</v>
+      </c>
+      <c r="M28" s="86">
+        <f>D41/$F41*$D34</f>
+        <v>0.15068493150684931</v>
+      </c>
+      <c r="N28" s="87">
+        <f>E41/$F41*$D34</f>
+        <v>1.2557077625570776E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="92"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="96">
+        <v>75</v>
+      </c>
+      <c r="D31" s="97">
+        <f>C31/C35</f>
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="E31" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="99"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="96">
+        <v>101</v>
+      </c>
+      <c r="D32" s="97">
+        <f>C32/C35</f>
+        <v>0.27671232876712326</v>
+      </c>
+      <c r="E32" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="99"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="96">
+        <v>79</v>
+      </c>
+      <c r="D33" s="97">
+        <f>C33/C35</f>
+        <v>0.21643835616438356</v>
+      </c>
+      <c r="E33" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="99"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="102">
+        <v>110</v>
+      </c>
+      <c r="D34" s="103">
+        <f>C34/C35</f>
+        <v>0.30136986301369861</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="105"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="89"/>
+      <c r="C35" s="106">
+        <f>SUM(C31:C34)</f>
+        <v>365</v>
+      </c>
+      <c r="D35" s="107">
+        <f>SUM(D31:D34)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E35" s="108"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="89"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="113">
+        <v>11</v>
+      </c>
+      <c r="D38" s="114">
+        <v>12</v>
+      </c>
+      <c r="E38" s="113">
+        <v>1</v>
+      </c>
+      <c r="F38" s="106">
+        <f>SUM(C38:E38)</f>
+        <v>24</v>
+      </c>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="116">
+        <v>12</v>
+      </c>
+      <c r="D39" s="117">
+        <v>11</v>
+      </c>
+      <c r="E39" s="116">
+        <v>1</v>
+      </c>
+      <c r="F39" s="106">
+        <f>SUM(C39:E39)</f>
+        <v>24</v>
+      </c>
+      <c r="G39" s="106"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="116">
+        <v>11</v>
+      </c>
+      <c r="D40" s="117">
+        <v>12</v>
+      </c>
+      <c r="E40" s="116">
+        <v>1</v>
+      </c>
+      <c r="F40" s="118">
+        <f>SUM(C40:E40)</f>
+        <v>24</v>
+      </c>
+      <c r="G40" s="118"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="120">
+        <v>11</v>
+      </c>
+      <c r="D41" s="121">
+        <v>12</v>
+      </c>
+      <c r="E41" s="120">
+        <v>1</v>
+      </c>
+      <c r="F41" s="118">
+        <f>SUM(C41:E41)</f>
+        <v>24</v>
+      </c>
+      <c r="G41" s="118"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:N27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="13.5" thickBot="1">
+      <c r="B3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="D4" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="2:14" ht="18">
+      <c r="B7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="40"/>
+      <c r="C10" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="42">
+        <f>C23/$F23*$D15</f>
+        <v>9.417808219178081E-2</v>
+      </c>
+      <c r="D11" s="43">
+        <f>D23/$F23*$D15</f>
+        <v>0.10273972602739725</v>
+      </c>
+      <c r="E11" s="43">
+        <f>E23/$F23*$D15</f>
+        <v>8.5616438356164379E-3</v>
+      </c>
+      <c r="F11" s="43">
+        <f>C24/$F24*$D16</f>
+        <v>0.12682648401826482</v>
+      </c>
+      <c r="G11" s="43">
+        <f>D24/$F24*$D16</f>
+        <v>0.13835616438356163</v>
+      </c>
+      <c r="H11" s="43">
+        <f>E24/$F24*$D16</f>
+        <v>1.1529680365296802E-2</v>
+      </c>
+      <c r="I11" s="43">
+        <f>C25/$F25*$D17</f>
+        <v>9.9200913242009123E-2</v>
+      </c>
+      <c r="J11" s="43">
+        <f>D25/$F25*$D17</f>
+        <v>0.10821917808219178</v>
+      </c>
+      <c r="K11" s="43">
+        <f>E25/$F25*$D17</f>
+        <v>9.0182648401826472E-3</v>
+      </c>
+      <c r="L11" s="43">
+        <f>C26/$F26*$D18</f>
+        <v>0.13812785388127852</v>
+      </c>
+      <c r="M11" s="43">
+        <f>D26/$F26*$D18</f>
+        <v>0.15068493150684931</v>
+      </c>
+      <c r="N11" s="44">
+        <f>E26/$F26*$D18</f>
+        <v>1.2557077625570776E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="14.25">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75">
+      <c r="B14" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="54">
+        <v>75</v>
+      </c>
+      <c r="D15" s="55">
+        <f>C15/C19</f>
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="54">
+        <v>101</v>
+      </c>
+      <c r="D16" s="55">
+        <f>C16/C19</f>
+        <v>0.27671232876712326</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="54">
+        <v>79</v>
+      </c>
+      <c r="D17" s="55">
+        <f>C17/C19</f>
+        <v>0.21643835616438356</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="60">
+        <v>110</v>
+      </c>
+      <c r="D18" s="61">
+        <f>C18/C19</f>
+        <v>0.30136986301369861</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="C19" s="64">
+        <f>SUM(C15:C18)</f>
+        <v>365</v>
+      </c>
+      <c r="D19" s="65">
+        <f>SUM(D15:D18)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" s="52"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="C21" s="52"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75">
+      <c r="B22" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="68">
+        <v>11</v>
+      </c>
+      <c r="D23" s="38">
+        <v>12</v>
+      </c>
+      <c r="E23" s="68">
+        <v>1</v>
+      </c>
+      <c r="F23" s="64">
+        <f>SUM(C23:E23)</f>
+        <v>24</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="72">
+        <v>11</v>
+      </c>
+      <c r="D24" s="73">
+        <v>12</v>
+      </c>
+      <c r="E24" s="72">
+        <v>1</v>
+      </c>
+      <c r="F24" s="64">
+        <f>SUM(C24:E24)</f>
+        <v>24</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="52"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="72">
+        <v>11</v>
+      </c>
+      <c r="D25" s="73">
+        <v>12</v>
+      </c>
+      <c r="E25" s="72">
+        <v>1</v>
+      </c>
+      <c r="F25" s="74">
+        <f>SUM(C25:E25)</f>
+        <v>24</v>
+      </c>
+      <c r="G25" s="74"/>
+      <c r="H25" s="52"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="76">
+        <v>11</v>
+      </c>
+      <c r="D26" s="77">
+        <v>12</v>
+      </c>
+      <c r="E26" s="76">
+        <v>1</v>
+      </c>
+      <c r="F26" s="74">
+        <f>SUM(C26:E26)</f>
+        <v>24</v>
+      </c>
+      <c r="G26" s="74"/>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="78"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
+  <dimension ref="B4:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" s="135"/>
+      <c r="C4" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="135"/>
+      <c r="C5" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="135"/>
+      <c r="C6" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="135"/>
+      <c r="C7" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="135" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="135"/>
+      <c r="C8" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="135" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="135"/>
+      <c r="C9" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="135" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="135"/>
+      <c r="C10" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="135" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="135"/>
+      <c r="C11" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="135" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="135"/>
+      <c r="C12" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="135" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="135" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="136" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="135"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="135">
+        <v>1</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135" t="s">
+        <v>294</v>
+      </c>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="135"/>
+      <c r="C20" s="135" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="135"/>
+      <c r="C21" s="135" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="135" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B2:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="13.5" thickBot="1">
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="6"/>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="131" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="131"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="130">
+        <v>1055.55</v>
+      </c>
+      <c r="K15" s="133" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="130">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="131" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="130">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="133" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="131" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="130">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="130">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="131" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="130">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="131" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="130">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="131" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="132">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="131" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="130">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="131" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="130">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="131" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="131" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="130">
+        <v>0.15384600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="131" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="131" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="130">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="131" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="130">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="131" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="130">
+        <v>37.681199999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="130">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="131" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="130">
+        <v>2.7777769999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="131" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="130">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="130">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF24E5-8978-4DD1-ABA1-6E540D28EE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97048C0B-F848-4F61-A9ED-154EF396F3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1168,6 +1168,9 @@
   </si>
   <si>
     <t>ELC~1</t>
+  </si>
+  <si>
+    <t>MW</t>
   </si>
 </sst>
 </file>
@@ -2799,7 +2802,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3096,7 +3099,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431"/>
@@ -8861,204 +8863,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="4" spans="2:5">
-      <c r="B4" s="135"/>
-      <c r="C4" s="137" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="135"/>
-      <c r="C5" s="136" t="s">
+      <c r="B5" s="134"/>
+      <c r="C5" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="135" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="135"/>
-      <c r="C6" s="135" t="s">
+      <c r="B6" s="134"/>
+      <c r="C6" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="137" t="s">
         <v>283</v>
       </c>
-      <c r="E6" s="135">
+      <c r="E6" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="135"/>
-      <c r="C7" s="135" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="134" t="s">
         <v>299</v>
       </c>
-      <c r="E7" s="135">
+      <c r="E7" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="135"/>
-      <c r="C8" s="135" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="134" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="135">
+      <c r="E8" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="135"/>
-      <c r="C9" s="135" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="134" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="135">
+      <c r="E9" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="135"/>
-      <c r="C10" s="135" t="s">
+      <c r="B10" s="134"/>
+      <c r="C10" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="134" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="135">
+      <c r="E10" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="135"/>
-      <c r="C11" s="135" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="134" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="135"/>
-      <c r="C12" s="135" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="134" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E12" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="134" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="135">
+      <c r="E13" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="136" t="s">
         <v>289</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="135" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="135"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="135">
+      <c r="B19" s="134">
         <v>1</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="134" t="s">
         <v>293</v>
       </c>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135" t="s">
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="135"/>
-      <c r="C20" s="135" t="s">
+      <c r="B20" s="134"/>
+      <c r="C20" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="134" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135" t="s">
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134" t="s">
         <v>296</v>
       </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="135"/>
-      <c r="C21" s="135" t="s">
+      <c r="B21" s="134"/>
+      <c r="C21" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="D21" s="135" t="s">
+      <c r="D21" s="134" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135" t="s">
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134" t="s">
         <v>298</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9068,9 +9070,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:K32"/>
+  <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -9196,7 +9200,7 @@
       <c r="C14" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="130" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9210,7 +9214,7 @@
       <c r="D15" s="130">
         <v>1055.55</v>
       </c>
-      <c r="K15" s="133" t="s">
+      <c r="K15" s="132" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9235,7 +9239,7 @@
       <c r="D17" s="130">
         <v>1000</v>
       </c>
-      <c r="K17" s="133" t="s">
+      <c r="K17" s="132" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9290,7 +9294,7 @@
       <c r="C22" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="132">
+      <c r="D22" s="130">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -9402,6 +9406,17 @@
       </c>
       <c r="D32" s="130">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="131" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="130">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97048C0B-F848-4F61-A9ED-154EF396F3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB27A8-0B08-4A21-BE0E-537C3A849A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="12735" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="303">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1171,6 +1171,9 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>~-1</t>
   </si>
 </sst>
 </file>
@@ -7483,7 +7486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -7566,8 +7571,8 @@
       <c r="E7" s="18">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>5</v>
+      <c r="F7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.5" customHeight="1"/>
@@ -9072,7 +9077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB27A8-0B08-4A21-BE0E-537C3A849A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAD1E1E-2B49-4500-A1C8-C14B6E6F7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="12735" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="23" r:id="rId5"/>
     <sheet name="Constants" sheetId="20" r:id="rId6"/>
     <sheet name="TimeSlices" sheetId="22" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId8"/>
+    <sheet name="reporting options" sheetId="26" r:id="rId8"/>
     <sheet name="Defaults" sheetId="21" r:id="rId9"/>
     <sheet name="Commodity Group" sheetId="15" r:id="rId10"/>
     <sheet name="Commodities" sheetId="24" r:id="rId11"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="294">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1134,36 +1134,6 @@
     <t>OBJ~1</t>
   </si>
   <si>
-    <t>~RFInput</t>
-  </si>
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>RFSwitch</t>
-  </si>
-  <si>
-    <t>$SET BENCOST YES</t>
-  </si>
-  <si>
-    <t>benefit-cost reporting for new technologies</t>
-  </si>
-  <si>
-    <t>$SET ANNCOST LEV</t>
-  </si>
-  <si>
-    <t>report annual costs based upon levelized values over process lifetimes or periods</t>
-  </si>
-  <si>
-    <t>$SET WAVER YES</t>
-  </si>
-  <si>
-    <t>weighted average interpolation (COM_PROJ and PRC_RESID)</t>
-  </si>
-  <si>
     <t>FLO~1</t>
   </si>
   <si>
@@ -1174,6 +1144,9 @@
   </si>
   <si>
     <t>~-1</t>
+  </si>
+  <si>
+    <t>Def5</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2778,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3108,6 +3081,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="431" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{868B5B88-E909-4783-AD13-DE2EB64A3CB4}"/>
@@ -5883,7 +5857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -7134,9 +7108,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:E39"/>
+  <dimension ref="A3:F39"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -7232,7 +7208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="B17" s="14"/>
       <c r="C17" s="14">
         <v>5</v>
@@ -7241,54 +7217,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="129" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>217</v>
       </c>
@@ -7304,8 +7280,11 @@
       <c r="E27" s="125" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="138" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -7322,7 +7301,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>247</v>
       </c>
@@ -7338,8 +7317,11 @@
       <c r="E29" s="14">
         <v>2005</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="14">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>247</v>
       </c>
@@ -7355,8 +7337,11 @@
       <c r="E30" s="14">
         <v>2006</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -7370,8 +7355,11 @@
       <c r="E31" s="14">
         <v>2007</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>247</v>
       </c>
@@ -7385,8 +7373,11 @@
       <c r="E32" s="14">
         <v>2010</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="14">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -7400,8 +7391,11 @@
       <c r="E33" s="14">
         <v>2015</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="14">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7413,8 +7407,11 @@
       <c r="E34" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="14">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>247</v>
       </c>
@@ -7426,8 +7423,11 @@
       <c r="E35" s="14">
         <v>2030</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="14">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -7439,8 +7439,11 @@
       <c r="E36" s="14">
         <v>2050</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="14">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -7450,8 +7453,11 @@
       <c r="E37" s="14">
         <v>2060</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="14">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -7461,8 +7467,11 @@
       <c r="E38" s="14">
         <v>2075</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="14">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>247</v>
       </c>
@@ -7471,6 +7480,9 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14">
         <v>2100</v>
+      </c>
+      <c r="F39" s="14">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -7486,7 +7498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -7572,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.5" customHeight="1"/>
@@ -8869,7 +8881,7 @@
   <dimension ref="B4:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8912,7 +8924,7 @@
         <v>282</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E7" s="134">
         <v>1</v>
@@ -8983,88 +8995,22 @@
         <v>282</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E13" s="134">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="135" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="135" t="s">
-        <v>291</v>
-      </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
+    <row r="18" spans="10:10">
       <c r="J18" s="133"/>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="134">
-        <v>1</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="134" t="s">
-        <v>293</v>
-      </c>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
+    <row r="19" spans="10:10">
       <c r="J19" s="134"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="134"/>
-      <c r="C20" s="134" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="134" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
+    <row r="20" spans="10:10">
       <c r="J20" s="134"/>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="134"/>
-      <c r="C21" s="134" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" s="134" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134" t="s">
-        <v>298</v>
-      </c>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
+    <row r="21" spans="10:10">
       <c r="J21" s="134"/>
     </row>
   </sheetData>
@@ -9418,7 +9364,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="131" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D33" s="130">
         <v>1000</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAD1E1E-2B49-4500-A1C8-C14B6E6F7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B1B42-B97D-4F13-9C15-08D7C481668A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="299">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1147,6 +1147,21 @@
   </si>
   <si>
     <t>Def5</t>
+  </si>
+  <si>
+    <t>testing use of UDCG as commodity</t>
+  </si>
+  <si>
+    <t>~tfm_ins</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>cset_cn</t>
+  </si>
+  <si>
+    <t>allregions</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2793,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3082,6 +3097,7 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="421"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{868B5B88-E909-4783-AD13-DE2EB64A3CB4}"/>
@@ -5857,7 +5873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6127,9 +6143,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:I9"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6251,6 +6269,41 @@
       </c>
       <c r="I9" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="132" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="139" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="139" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="139" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="str">
+        <f>B8</f>
+        <v>G-INDELC</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B1B42-B97D-4F13-9C15-08D7C481668A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BC5A3-DCA4-4053-9042-A319B68F58A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1143,9 +1143,6 @@
     <t>MW</t>
   </si>
   <si>
-    <t>~-1</t>
-  </si>
-  <si>
     <t>Def5</t>
   </si>
   <si>
@@ -1162,6 +1159,18 @@
   </si>
   <si>
     <t>allregions</t>
+  </si>
+  <si>
+    <t>CO2Captured</t>
+  </si>
+  <si>
+    <t>CO2 captured</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Def6</t>
   </si>
 </sst>
 </file>
@@ -6145,7 +6154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6273,25 +6282,25 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="132" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="139" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="139"/>
       <c r="D16" s="139"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="139" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="D17" s="139" t="s">
         <v>297</v>
-      </c>
-      <c r="D17" s="139" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -6317,9 +6326,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EC31CD-0AC2-4117-ADE4-ED9EFDB1D2DC}">
-  <dimension ref="B3:J32"/>
+  <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6702,91 +6713,92 @@
     </row>
     <row r="23" spans="2:10">
       <c r="C23" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="124" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="124" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="124" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="C24" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="124" t="s">
+      <c r="D24" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="124" t="s">
+      <c r="E24" s="124" t="s">
         <v>178</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="D24" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="124" t="s">
-        <v>179</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="C25" t="s">
-        <v>164</v>
-      </c>
       <c r="D25" s="124" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E25" s="124" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" t="s">
-        <v>200</v>
-      </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D26" s="124" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="H26" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D27" s="124" t="s">
         <v>202</v>
       </c>
       <c r="E27" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="124" t="s">
         <v>205</v>
-      </c>
-      <c r="F27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="C28" t="str">
-        <f>LEFT(D28,3)</f>
-        <v>ENV</v>
-      </c>
-      <c r="D28" s="124" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" t="str">
-        <f>C28&amp;" commodity to test trade pcg"</f>
-        <v>ENV commodity to test trade pcg</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -6794,65 +6806,81 @@
     </row>
     <row r="29" spans="2:10">
       <c r="C29" t="str">
-        <f t="shared" ref="C29:C32" si="0">LEFT(D29,3)</f>
-        <v>NRG</v>
+        <f>LEFT(D29,3)</f>
+        <v>ENV</v>
       </c>
       <c r="D29" s="124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:E32" si="1">C29&amp;" commodity to test trade pcg"</f>
-        <v>NRG commodity to test trade pcg</v>
+        <f>C29&amp;" commodity to test trade pcg"</f>
+        <v>ENV commodity to test trade pcg</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>MAT</v>
+        <f t="shared" ref="C30:C33" si="0">LEFT(D30,3)</f>
+        <v>NRG</v>
       </c>
       <c r="D30" s="124" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>MAT commodity to test trade pcg</v>
+        <f t="shared" ref="E30:E33" si="1">C30&amp;" commodity to test trade pcg"</f>
+        <v>NRG commodity to test trade pcg</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>FIN</v>
+        <v>MAT</v>
       </c>
       <c r="D31" s="124" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
-        <v>FIN commodity to test trade pcg</v>
+        <v>MAT commodity to test trade pcg</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>DEM</v>
+        <v>FIN</v>
       </c>
       <c r="D32" s="124" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
+        <v>FIN commodity to test trade pcg</v>
+      </c>
+      <c r="F32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>DEM</v>
+      </c>
+      <c r="D33" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
         <v>DEM commodity to test trade pcg</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7161,10 +7189,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:F39"/>
+  <dimension ref="A3:G39"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7261,7 +7289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="B17" s="14"/>
       <c r="C17" s="14">
         <v>5</v>
@@ -7270,54 +7298,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="129" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>217</v>
       </c>
@@ -7334,10 +7362,13 @@
         <v>216</v>
       </c>
       <c r="F27" s="138" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>292</v>
+      </c>
+      <c r="G27" s="138" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -7354,7 +7385,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>247</v>
       </c>
@@ -7373,8 +7404,11 @@
       <c r="F29" s="14">
         <v>2005</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="14">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>247</v>
       </c>
@@ -7393,8 +7427,11 @@
       <c r="F30" s="14">
         <v>2010</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -7411,8 +7448,11 @@
       <c r="F31" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>247</v>
       </c>
@@ -7429,8 +7469,11 @@
       <c r="F32" s="14">
         <v>2025</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="14">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -7447,8 +7490,11 @@
       <c r="F33" s="14">
         <v>2026</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="14">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7463,8 +7509,11 @@
       <c r="F34" s="14">
         <v>2027</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="14">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>247</v>
       </c>
@@ -7479,8 +7528,11 @@
       <c r="F35" s="14">
         <v>2028</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="14">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -7495,8 +7547,11 @@
       <c r="F36" s="14">
         <v>2029</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="14">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -7509,8 +7564,11 @@
       <c r="F37" s="14">
         <v>2030</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -7523,8 +7581,9 @@
       <c r="F38" s="14">
         <v>2040</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>247</v>
       </c>
@@ -7537,6 +7596,7 @@
       <c r="F39" s="14">
         <v>2050</v>
       </c>
+      <c r="G39" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7636,8 +7696,8 @@
       <c r="E7" s="18">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>292</v>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.5" customHeight="1"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BC5A3-DCA4-4053-9042-A319B68F58A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9751AD3C-B5BE-47E4-B719-8EE4E525D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="303">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1171,6 +1171,9 @@
   </si>
   <si>
     <t>Def6</t>
+  </si>
+  <si>
+    <t>ACT~2</t>
   </si>
 </sst>
 </file>
@@ -2802,7 +2805,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3107,6 +3110,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="421"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFill="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{868B5B88-E909-4783-AD13-DE2EB64A3CB4}"/>
@@ -7191,7 +7195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -8993,11 +8997,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:5">
       <c r="B4" s="134"/>
@@ -9112,6 +9119,17 @@
       </c>
       <c r="E13" s="134">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="C14" s="140" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="140">
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="10:10">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9751AD3C-B5BE-47E4-B719-8EE4E525D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211D514F-B4CC-495D-B369-C780552050D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -32,14 +32,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Defaults!$B$14:$D$32</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -265,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="304">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1174,6 +1172,9 @@
   </si>
   <si>
     <t>ACT~2</t>
+  </si>
+  <si>
+    <t>Def7</t>
   </si>
 </sst>
 </file>
@@ -7193,10 +7194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:G39"/>
+  <dimension ref="A3:H79"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7293,7 +7294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="B17" s="14"/>
       <c r="C17" s="14">
         <v>5</v>
@@ -7302,54 +7303,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="129" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>217</v>
       </c>
@@ -7371,8 +7372,11 @@
       <c r="G27" s="138" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="138" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>247</v>
       </c>
@@ -7411,8 +7415,11 @@
       <c r="G29" s="14">
         <v>2005</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="14">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>247</v>
       </c>
@@ -7434,8 +7441,11 @@
       <c r="G30" s="14">
         <v>2010</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="14">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -7455,8 +7465,11 @@
       <c r="G31" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="14">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>247</v>
       </c>
@@ -7476,8 +7489,11 @@
       <c r="G32" s="14">
         <v>2025</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="14">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -7497,8 +7513,11 @@
       <c r="G33" s="14">
         <v>2030</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="14">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -7516,8 +7535,11 @@
       <c r="G34" s="14">
         <v>2035</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>247</v>
       </c>
@@ -7535,8 +7557,11 @@
       <c r="G35" s="14">
         <v>2040</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="14">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -7554,8 +7579,11 @@
       <c r="G36" s="14">
         <v>2045</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="14">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -7571,8 +7599,11 @@
       <c r="G37" s="14">
         <v>2050</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="14">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -7586,8 +7617,11 @@
         <v>2040</v>
       </c>
       <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>247</v>
       </c>
@@ -7601,6 +7635,207 @@
         <v>2050</v>
       </c>
       <c r="G39" s="14"/>
+      <c r="H39" s="14">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="H40" s="14">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="H41" s="14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="H42" s="14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="H43" s="14">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="H44" s="14">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="H45" s="14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="H46" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="H47" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="H48" s="14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="14">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" s="14">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="14">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55" s="14">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" s="14">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" s="14">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" s="14">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="14">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" s="14">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" s="14">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" s="14">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" s="14">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" s="14">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="14">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="14">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="14">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="14">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" s="14">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="14">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="14">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" s="14">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" s="14">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="14">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" s="14">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" s="14">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" s="14">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8997,7 +9232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9751AD3C-B5BE-47E4-B719-8EE4E525D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB810EE4-C738-4768-8E22-67D4D771E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" tabRatio="853" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="296">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -906,18 +906,6 @@
     <t>~Milestoneyears</t>
   </si>
   <si>
-    <t>Def1</t>
-  </si>
-  <si>
-    <t>Def2</t>
-  </si>
-  <si>
-    <t>Def3</t>
-  </si>
-  <si>
-    <t>Def4</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -1143,15 +1131,9 @@
     <t>MW</t>
   </si>
   <si>
-    <t>Def5</t>
-  </si>
-  <si>
     <t>testing use of UDCG as commodity</t>
   </si>
   <si>
-    <t>~tfm_ins</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -1168,9 +1150,6 @@
   </si>
   <si>
     <t>FX</t>
-  </si>
-  <si>
-    <t>Def6</t>
   </si>
   <si>
     <t>ACT~2</t>
@@ -2805,7 +2784,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3108,7 +3087,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="431" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="421"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFill="1"/>
   </cellXfs>
@@ -3935,13 +3913,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>240029</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>483870</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>22918</xdr:rowOff>
@@ -6158,8 +6136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6286,25 +6264,23 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="132" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="139" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="139" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" s="139" t="s">
-        <v>296</v>
-      </c>
-      <c r="D17" s="139" t="s">
-        <v>297</v>
+      <c r="B17" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="138" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -6720,16 +6696,16 @@
         <v>164</v>
       </c>
       <c r="D23" s="124" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E23" s="124" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
         <v>163</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -6912,7 +6888,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -6926,10 +6902,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -6937,16 +6913,16 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -6954,16 +6930,16 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -6971,7 +6947,7 @@
         <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
         <v>71</v>
@@ -6980,7 +6956,7 @@
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -6988,202 +6964,202 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="D8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="D9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="D10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="D11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="D12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="D13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="D14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="D15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="D16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="D26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="D28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="D29" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="4:6">
       <c r="D30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="4:6">
       <c r="D31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7193,10 +7169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:G39"/>
+  <dimension ref="A3:F42"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7204,10 +7180,10 @@
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
@@ -7234,7 +7210,7 @@
     <row r="8" spans="2:5">
       <c r="B8" t="str">
         <f>E27</f>
-        <v>Def4</v>
+        <v>msy2100-14p</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -7293,7 +7269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="B17" s="14"/>
       <c r="C17" s="14">
         <v>5</v>
@@ -7302,79 +7278,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:6">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:6">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" s="129" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="125" t="s">
-        <v>216</v>
-      </c>
-      <c r="F27" s="138" t="s">
-        <v>292</v>
-      </c>
-      <c r="G27" s="138" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="B27" s="125" t="str">
+        <f>"msy"&amp;MAX(B29:B45)&amp;"-"&amp;COUNT(B29:B45)&amp;"p"</f>
+        <v>msy2007-2p</v>
+      </c>
+      <c r="C27" s="125" t="str">
+        <f t="shared" ref="C27:F27" si="0">"msy"&amp;MAX(C29:C45)&amp;"-"&amp;COUNT(C29:C45)&amp;"p"</f>
+        <v>msy2015-5p</v>
+      </c>
+      <c r="D27" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>msy2050-9p</v>
+      </c>
+      <c r="E27" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>msy2100-14p</v>
+      </c>
+      <c r="F27" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>msy2050-6p</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B28">
         <f>MAX(B29:B39)+4</f>
@@ -7389,9 +7367,9 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B29" s="14">
         <v>2005</v>
@@ -7403,18 +7381,17 @@
         <v>2005</v>
       </c>
       <c r="E29" s="14">
+        <f>D29</f>
         <v>2005</v>
       </c>
       <c r="F29" s="14">
+        <f>E29</f>
         <v>2005</v>
       </c>
-      <c r="G29" s="14">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B30" s="14">
         <v>2007</v>
@@ -7423,184 +7400,190 @@
         <v>2006</v>
       </c>
       <c r="D30" s="14">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="E30" s="14">
-        <v>2006</v>
+        <f t="shared" ref="E30:F31" si="1">D30</f>
+        <v>2015</v>
       </c>
       <c r="F30" s="14">
-        <v>2010</v>
-      </c>
-      <c r="G30" s="14">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14">
         <v>2007</v>
       </c>
       <c r="D31" s="14">
-        <v>2007</v>
+        <f>D30+5</f>
+        <v>2020</v>
       </c>
       <c r="E31" s="14">
-        <v>2007</v>
+        <f t="shared" si="1"/>
+        <v>2020</v>
       </c>
       <c r="F31" s="14">
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="G31" s="14">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14">
         <v>2010</v>
       </c>
       <c r="D32" s="14">
-        <v>2010</v>
+        <f t="shared" ref="D32:D37" si="2">D31+5</f>
+        <v>2025</v>
       </c>
       <c r="E32" s="14">
-        <v>2010</v>
+        <f>E31+5</f>
+        <v>2025</v>
       </c>
       <c r="F32" s="14">
-        <v>2025</v>
-      </c>
-      <c r="G32" s="14">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <f>F31+10</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14">
         <v>2015</v>
       </c>
       <c r="D33" s="14">
-        <v>2015</v>
+        <f t="shared" si="2"/>
+        <v>2030</v>
       </c>
       <c r="E33" s="14">
-        <v>2015</v>
+        <f t="shared" ref="E33:E37" si="3">E32+5</f>
+        <v>2030</v>
       </c>
       <c r="F33" s="14">
-        <v>2026</v>
-      </c>
-      <c r="G33" s="14">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <f t="shared" ref="F33:F34" si="4">F32+10</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14">
-        <v>2020</v>
+        <f t="shared" si="2"/>
+        <v>2035</v>
       </c>
       <c r="E34" s="14">
-        <v>2020</v>
+        <f t="shared" si="3"/>
+        <v>2035</v>
       </c>
       <c r="F34" s="14">
-        <v>2027</v>
-      </c>
-      <c r="G34" s="14">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <f t="shared" si="4"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14">
-        <v>2030</v>
+        <f t="shared" si="2"/>
+        <v>2040</v>
       </c>
       <c r="E35" s="14">
-        <v>2030</v>
-      </c>
-      <c r="F35" s="14">
-        <v>2028</v>
-      </c>
-      <c r="G35" s="14">
+        <f t="shared" si="3"/>
         <v>2040</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14">
-        <v>2050</v>
+        <f t="shared" si="2"/>
+        <v>2045</v>
       </c>
       <c r="E36" s="14">
-        <v>2050</v>
-      </c>
-      <c r="F36" s="14">
-        <v>2029</v>
-      </c>
-      <c r="G36" s="14">
+        <f t="shared" si="3"/>
         <v>2045</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14">
+        <f t="shared" si="2"/>
+        <v>2050</v>
+      </c>
       <c r="E37" s="14">
-        <v>2060</v>
-      </c>
-      <c r="F37" s="14">
-        <v>2030</v>
-      </c>
-      <c r="G37" s="14">
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14">
-        <v>2075</v>
-      </c>
-      <c r="F38" s="14">
-        <v>2040</v>
-      </c>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7">
+        <f>E37+10</f>
+        <v>2060</v>
+      </c>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14">
+        <f t="shared" ref="E39:E42" si="5">E38+10</f>
+        <v>2070</v>
+      </c>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="E40" s="14">
+        <f t="shared" si="5"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="E41" s="14">
+        <f t="shared" si="5"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="E42" s="14">
+        <f t="shared" si="5"/>
         <v>2100</v>
       </c>
-      <c r="F39" s="14">
-        <v>2050</v>
-      </c>
-      <c r="G39" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8997,7 +8980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -9029,10 +9012,10 @@
     <row r="6" spans="2:5">
       <c r="B6" s="134"/>
       <c r="C6" s="134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D6" s="137" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E6" s="134">
         <v>1</v>
@@ -9041,10 +9024,10 @@
     <row r="7" spans="2:5">
       <c r="B7" s="134"/>
       <c r="C7" s="134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E7" s="134">
         <v>1</v>
@@ -9053,10 +9036,10 @@
     <row r="8" spans="2:5">
       <c r="B8" s="134"/>
       <c r="C8" s="134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E8" s="134">
         <v>1</v>
@@ -9065,10 +9048,10 @@
     <row r="9" spans="2:5">
       <c r="B9" s="134"/>
       <c r="C9" s="134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D9" s="134" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E9" s="134">
         <v>1</v>
@@ -9077,10 +9060,10 @@
     <row r="10" spans="2:5">
       <c r="B10" s="134"/>
       <c r="C10" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="134" t="s">
         <v>282</v>
-      </c>
-      <c r="D10" s="134" t="s">
-        <v>286</v>
       </c>
       <c r="E10" s="134">
         <v>0</v>
@@ -9089,10 +9072,10 @@
     <row r="11" spans="2:5">
       <c r="B11" s="134"/>
       <c r="C11" s="134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E11" s="134">
         <v>1</v>
@@ -9101,10 +9084,10 @@
     <row r="12" spans="2:5">
       <c r="B12" s="134"/>
       <c r="C12" s="134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D12" s="134" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E12" s="134">
         <v>1</v>
@@ -9112,23 +9095,23 @@
     </row>
     <row r="13" spans="2:5">
       <c r="C13" s="134" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E13" s="134">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" s="140" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="140" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="140">
+      <c r="C14" s="139" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="139">
         <v>-1</v>
       </c>
     </row>
@@ -9271,24 +9254,24 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="131" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C13" s="131"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="131" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C14" s="131" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D14" s="130" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="131" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C15" s="131" t="s">
         <v>51</v>
@@ -9297,12 +9280,12 @@
         <v>1055.55</v>
       </c>
       <c r="K15" s="132" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="131" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C16" s="131" t="s">
         <v>51</v>
@@ -9313,24 +9296,24 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="131" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C17" s="131" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D17" s="130">
         <v>1000</v>
       </c>
       <c r="K17" s="132" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="131" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D18" s="130">
         <v>1000</v>
@@ -9338,7 +9321,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="131" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C19" s="131" t="s">
         <v>51</v>
@@ -9349,7 +9332,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="131" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C20" s="131" t="s">
         <v>51</v>
@@ -9360,7 +9343,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="131" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C21" s="131" t="s">
         <v>51</v>
@@ -9371,7 +9354,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="131" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C22" s="131" t="s">
         <v>51</v>
@@ -9382,10 +9365,10 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="131" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D23" s="130">
         <v>1000000</v>
@@ -9393,10 +9376,10 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="131" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C24" s="131" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D24" s="130">
         <v>1000</v>
@@ -9404,10 +9387,10 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="131" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C25" s="131" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D25" s="130">
         <v>0.15384600000000001</v>
@@ -9415,10 +9398,10 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="131" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C26" s="131" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D26" s="130">
         <v>-1E-3</v>
@@ -9426,7 +9409,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="131" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C27" s="131" t="s">
         <v>51</v>
@@ -9437,7 +9420,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="131" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" s="131" t="s">
         <v>51</v>
@@ -9448,7 +9431,7 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="131" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" s="131" t="s">
         <v>51</v>
@@ -9459,10 +9442,10 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="131" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C30" s="131" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D30" s="130">
         <v>2.7777769999999999</v>
@@ -9470,7 +9453,7 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="131" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C31" s="131" t="s">
         <v>51</v>
@@ -9495,7 +9478,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="131" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D33" s="130">
         <v>1000</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB810EE4-C738-4768-8E22-67D4D771E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122A9A7-87C9-4AC7-AB0B-26F2CF4FBAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" tabRatio="853" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30780" yWindow="2850" windowWidth="21600" windowHeight="14565" tabRatio="853" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="292">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1129,18 +1129,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>testing use of UDCG as commodity</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>cset_cn</t>
-  </si>
-  <si>
-    <t>allregions</t>
   </si>
   <si>
     <t>CO2Captured</t>
@@ -6134,10 +6122,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6263,9 +6251,7 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="132" t="s">
-        <v>288</v>
-      </c>
+      <c r="B14" s="132"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="138"/>
@@ -6273,27 +6259,9 @@
       <c r="D16" s="138"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="138" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="138" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="138" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="str">
-        <f>B8</f>
-        <v>G-INDELC</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6696,16 +6664,16 @@
         <v>164</v>
       </c>
       <c r="D23" s="124" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E23" s="124" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F23" t="s">
         <v>163</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -9109,7 +9077,7 @@
         <v>278</v>
       </c>
       <c r="D14" s="139" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E14" s="139">
         <v>-1</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122A9A7-87C9-4AC7-AB0B-26F2CF4FBAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6619D-1925-409E-97B7-D871546CB7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="2850" windowWidth="21600" windowHeight="14565" tabRatio="853" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="2160" windowWidth="21600" windowHeight="15165" tabRatio="853" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="293">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1141,6 +1141,9 @@
   </si>
   <si>
     <t>ACT~2</t>
+  </si>
+  <si>
+    <t>ELC~3</t>
   </si>
 </sst>
 </file>
@@ -6124,7 +6127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8948,8 +8951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9081,6 +9084,17 @@
       </c>
       <c r="E14" s="139">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="10:10">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6619D-1925-409E-97B7-D871546CB7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AA9FE6-AB83-4492-B244-C7DCA19C8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2160" windowWidth="21600" windowHeight="15165" tabRatio="853" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" tabRatio="853" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="295">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1144,6 +1144,12 @@
   </si>
   <si>
     <t>ELC~3</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>to model production tax credit</t>
   </si>
 </sst>
 </file>
@@ -2775,17 +2781,16 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2795,29 +2800,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2845,10 +2846,8 @@
     <xf numFmtId="165" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2860,11 +2859,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2873,7 +2871,7 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2891,19 +2889,19 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="8" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2921,10 +2919,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2936,7 +2931,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2966,9 +2961,8 @@
     <xf numFmtId="165" fontId="13" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2980,11 +2974,10 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3014,16 +3007,16 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3047,10 +3040,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3071,15 +3061,11 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="15" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="431" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="431" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="421"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="431" applyFill="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{868B5B88-E909-4783-AD13-DE2EB64A3CB4}"/>
@@ -5853,7 +5839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5866,18 +5852,17 @@
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="N1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="2:14">
       <c r="N2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6"/>
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5885,8 +5870,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6"/>
+    <row r="4" spans="2:14">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5903,215 +5887,127 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:14">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
       <c r="N5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:14">
+      <c r="B6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" t="s">
         <v>72</v>
       </c>
       <c r="N6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:14">
+      <c r="B7" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>87</v>
       </c>
       <c r="N7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="2:14">
+      <c r="C8" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" t="s">
         <v>95</v>
       </c>
       <c r="N8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:14">
+      <c r="C9" t="s">
         <v>122</v>
       </c>
       <c r="N9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="2:14">
+      <c r="C10" t="s">
         <v>123</v>
       </c>
       <c r="N10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:14">
+      <c r="B11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>124</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="2:14">
+      <c r="C12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="2:14">
+      <c r="C13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="2:14">
+      <c r="C14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:14">
+      <c r="B15" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+    <row r="16" spans="2:14">
+      <c r="C16" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6125,7 +6021,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -6145,34 +6041,25 @@
     <col min="10" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
     <row r="2" spans="2:9" ht="15">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="4" spans="2:9" ht="21" customHeight="1">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1">
       <c r="B5" s="1" t="s">
@@ -6206,18 +6093,18 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="26.25" thickBot="1">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
@@ -6254,17 +6141,17 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="132"/>
+      <c r="B14" s="119"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6277,10 +6164,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EC31CD-0AC2-4117-ADE4-ED9EFDB1D2DC}">
-  <dimension ref="B3:J33"/>
+  <dimension ref="B3:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6299,334 +6186,334 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="124" t="s">
+      <c r="J4" s="112" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="124" t="s">
+      <c r="F8" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="124" t="s">
+      <c r="E9" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="124" t="s">
+      <c r="F12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="124" t="s">
+      <c r="E14" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="124" t="s">
+      <c r="F15" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="124" t="s">
+      <c r="F16" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="124" t="s">
+      <c r="E17" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="124" t="s">
+      <c r="F17" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="124" t="s">
+      <c r="E18" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="124" t="s">
+      <c r="F18" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="124" t="s">
+      <c r="F19" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="124" t="s">
+      <c r="E20" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
     </row>
     <row r="21" spans="2:10">
       <c r="C21" t="s">
@@ -6663,30 +6550,30 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="124" t="s">
+      <c r="D23" s="112" t="s">
         <v>288</v>
       </c>
-      <c r="E23" s="124" t="s">
+      <c r="E23" s="112" t="s">
         <v>289</v>
       </c>
       <c r="F23" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="112" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="112" t="s">
         <v>178</v>
       </c>
       <c r="F24" t="s">
@@ -6694,10 +6581,10 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="D25" s="124" t="s">
+      <c r="D25" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="124" t="s">
+      <c r="E25" s="112" t="s">
         <v>179</v>
       </c>
       <c r="F25" t="s">
@@ -6708,10 +6595,10 @@
       <c r="C26" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="112" t="s">
         <v>190</v>
       </c>
       <c r="F26" t="s">
@@ -6725,10 +6612,10 @@
       <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="124" t="s">
+      <c r="E27" s="112" t="s">
         <v>204</v>
       </c>
       <c r="F27" t="s">
@@ -6745,10 +6632,10 @@
       <c r="C28" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="124" t="s">
+      <c r="D28" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="124" t="s">
+      <c r="E28" s="112" t="s">
         <v>205</v>
       </c>
       <c r="F28" t="s">
@@ -6760,7 +6647,7 @@
         <f>LEFT(D29,3)</f>
         <v>ENV</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="112" t="s">
         <v>206</v>
       </c>
       <c r="E29" t="str">
@@ -6776,7 +6663,7 @@
         <f t="shared" ref="C30:C33" si="0">LEFT(D30,3)</f>
         <v>NRG</v>
       </c>
-      <c r="D30" s="124" t="s">
+      <c r="D30" s="112" t="s">
         <v>207</v>
       </c>
       <c r="E30" t="str">
@@ -6792,7 +6679,7 @@
         <f t="shared" si="0"/>
         <v>MAT</v>
       </c>
-      <c r="D31" s="124" t="s">
+      <c r="D31" s="112" t="s">
         <v>208</v>
       </c>
       <c r="E31" t="str">
@@ -6808,7 +6695,7 @@
         <f t="shared" si="0"/>
         <v>FIN</v>
       </c>
-      <c r="D32" s="124" t="s">
+      <c r="D32" s="112" t="s">
         <v>209</v>
       </c>
       <c r="E32" t="str">
@@ -6824,7 +6711,7 @@
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="112" t="s">
         <v>210</v>
       </c>
       <c r="E33" t="str">
@@ -6832,6 +6719,20 @@
         <v>DEM commodity to test trade pcg</v>
       </c>
       <c r="F33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" t="s">
+        <v>294</v>
+      </c>
+      <c r="F34" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7140,10 +7041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:F42"/>
+  <dimension ref="A3:G47"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7190,138 +7091,142 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="115" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13">
         <v>5</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13">
         <v>5</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14">
+    <row r="17" spans="1:7">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13">
         <v>5</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14">
+    <row r="18" spans="1:7">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
+    <row r="19" spans="1:7">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14">
+    <row r="20" spans="1:7">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14">
+    <row r="21" spans="1:7">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14">
+    <row r="22" spans="1:7">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14">
+    <row r="23" spans="1:7">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="129" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="117" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="125" t="str">
+      <c r="B27" s="113" t="str">
         <f>"msy"&amp;MAX(B29:B45)&amp;"-"&amp;COUNT(B29:B45)&amp;"p"</f>
         <v>msy2007-2p</v>
       </c>
-      <c r="C27" s="125" t="str">
+      <c r="C27" s="113" t="str">
         <f t="shared" ref="C27:F27" si="0">"msy"&amp;MAX(C29:C45)&amp;"-"&amp;COUNT(C29:C45)&amp;"p"</f>
         <v>msy2015-5p</v>
       </c>
-      <c r="D27" s="125" t="str">
+      <c r="D27" s="113" t="str">
         <f t="shared" si="0"/>
         <v>msy2050-9p</v>
       </c>
-      <c r="E27" s="125" t="str">
+      <c r="E27" s="113" t="str">
         <f t="shared" si="0"/>
         <v>msy2100-14p</v>
       </c>
-      <c r="F27" s="125" t="str">
+      <c r="F27" s="113" t="str">
         <f t="shared" si="0"/>
         <v>msy2050-6p</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="113" t="str">
+        <f t="shared" ref="G27" si="1">"msy"&amp;MAX(G29:G45)&amp;"-"&amp;COUNT(G29:G45)&amp;"p"</f>
+        <v>msy2048-17p</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>242</v>
       </c>
@@ -7338,223 +7243,306 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>2005</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>2005</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>2005</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <f>D29</f>
         <v>2005</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <f>E29</f>
         <v>2005</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="13">
+        <f>F29</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>2007</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>2006</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>2015</v>
       </c>
-      <c r="E30" s="14">
-        <f t="shared" ref="E30:F31" si="1">D30</f>
+      <c r="E30" s="13">
+        <f t="shared" ref="E30:G31" si="2">D30</f>
         <v>2015</v>
       </c>
-      <c r="F30" s="14">
-        <f t="shared" si="1"/>
+      <c r="F30" s="13">
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="13">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>243</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13">
         <v>2007</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <f>D30+5</f>
         <v>2020</v>
       </c>
-      <c r="E31" s="14">
-        <f t="shared" si="1"/>
+      <c r="E31" s="13">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="F31" s="14">
-        <f t="shared" si="1"/>
+      <c r="F31" s="13">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="13">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13">
         <v>2010</v>
       </c>
-      <c r="D32" s="14">
-        <f t="shared" ref="D32:D37" si="2">D31+5</f>
+      <c r="D32" s="13">
+        <f t="shared" ref="D32:D37" si="3">D31+5</f>
         <v>2025</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <f>E31+5</f>
         <v>2025</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <f>F31+10</f>
         <v>2030</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="13">
+        <f>G31+2</f>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>243</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13">
         <v>2015</v>
       </c>
-      <c r="D33" s="14">
-        <f t="shared" si="2"/>
+      <c r="D33" s="13">
+        <f t="shared" si="3"/>
         <v>2030</v>
       </c>
-      <c r="E33" s="14">
-        <f t="shared" ref="E33:E37" si="3">E32+5</f>
+      <c r="E33" s="13">
+        <f t="shared" ref="E33:E37" si="4">E32+5</f>
         <v>2030</v>
       </c>
-      <c r="F33" s="14">
-        <f t="shared" ref="F33:F34" si="4">F32+10</f>
+      <c r="F33" s="13">
+        <f t="shared" ref="F33:F34" si="5">F32+10</f>
         <v>2040</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="13">
+        <f t="shared" ref="G33:G46" si="6">G32+2</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>243</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14">
-        <f t="shared" si="2"/>
-        <v>2035</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13">
         <f t="shared" si="3"/>
         <v>2035</v>
       </c>
-      <c r="F34" s="14">
+      <c r="E34" s="13">
+        <f t="shared" si="4"/>
+        <v>2035</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="5"/>
+        <v>2050</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="6"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="4"/>
+        <v>2040</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13">
+        <f t="shared" si="6"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="4"/>
+        <v>2045</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13">
+        <f t="shared" si="6"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="E37" s="13">
         <f t="shared" si="4"/>
         <v>2050</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14">
-        <f t="shared" si="2"/>
-        <v>2040</v>
-      </c>
-      <c r="E35" s="14">
-        <f t="shared" si="3"/>
-        <v>2040</v>
-      </c>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14">
-        <f t="shared" si="2"/>
-        <v>2045</v>
-      </c>
-      <c r="E36" s="14">
-        <f t="shared" si="3"/>
-        <v>2045</v>
-      </c>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14">
-        <f t="shared" si="2"/>
-        <v>2050</v>
-      </c>
-      <c r="E37" s="14">
-        <f t="shared" si="3"/>
-        <v>2050</v>
-      </c>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13">
+        <f t="shared" si="6"/>
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>243</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13">
         <f>E37+10</f>
         <v>2060</v>
       </c>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13">
+        <f t="shared" si="6"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14">
-        <f t="shared" ref="E39:E42" si="5">E38+10</f>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13">
+        <f t="shared" ref="E39:E42" si="7">E38+10</f>
         <v>2070</v>
       </c>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="E40" s="14">
-        <f t="shared" si="5"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13">
+        <f t="shared" si="6"/>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="E40" s="13">
+        <f t="shared" si="7"/>
         <v>2080</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="14">
-        <f t="shared" si="5"/>
+      <c r="G40" s="13">
+        <f t="shared" si="6"/>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="E41" s="13">
+        <f t="shared" si="7"/>
         <v>2090</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="E42" s="14">
-        <f t="shared" si="5"/>
+      <c r="G41" s="13">
+        <f t="shared" si="6"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="E42" s="13">
+        <f t="shared" si="7"/>
         <v>2100</v>
       </c>
+      <c r="G42" s="13">
+        <f t="shared" si="6"/>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="G43" s="13">
+        <f t="shared" si="6"/>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="G44" s="13">
+        <f t="shared" si="6"/>
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="G45" s="13">
+        <f t="shared" si="6"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="G46" s="13">
+        <f t="shared" si="6"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7585,7 +7573,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="128">
+      <c r="A1" s="116">
         <v>1</v>
       </c>
     </row>
@@ -7634,10 +7622,10 @@
       <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
       <c r="F6">
@@ -7648,10 +7636,10 @@
       <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
       <c r="F7">
@@ -7661,16 +7649,16 @@
     <row r="18" spans="2:4" ht="19.5" customHeight="1"/>
     <row r="19" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="30" spans="2:4" ht="15">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="18">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:17">
       <c r="B33" s="1" t="s">
@@ -7731,13 +7719,9 @@
       <c r="D35" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6">
+      <c r="G35">
         <v>2222</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
       <c r="J35" t="s">
         <v>17</v>
       </c>
@@ -7749,13 +7733,9 @@
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>8888</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
       <c r="J36" t="s">
         <v>17</v>
       </c>
@@ -7829,22 +7809,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7858,49 +7838,45 @@
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="110" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>2005</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:8" ht="13.5" customHeight="1">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>0.05</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:8" ht="13.5" customHeight="1">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>0.9</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7939,519 +7915,500 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="2:14">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:14">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:14">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:14" ht="18">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="81" t="s">
+      <c r="J26" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="K26" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L26" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="81" t="s">
+      <c r="M26" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="82" t="s">
+      <c r="N26" s="73" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="83"/>
-      <c r="C27" s="80" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="81" t="s">
+      <c r="I27" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="81" t="s">
+      <c r="J27" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="L27" s="81" t="s">
+      <c r="L27" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="81" t="s">
+      <c r="M27" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="82" t="s">
+      <c r="N27" s="73" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="76">
         <f>C38/$F38*$D31</f>
         <v>9.417808219178081E-2</v>
       </c>
-      <c r="D28" s="86">
+      <c r="D28" s="77">
         <f>D38/$F38*$D31</f>
         <v>0.10273972602739725</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="77">
         <f>E38/$F38*$D31</f>
         <v>8.5616438356164379E-3</v>
       </c>
-      <c r="F28" s="86">
+      <c r="F28" s="77">
         <f>C39/$F39*$D32</f>
         <v>0.13835616438356163</v>
       </c>
-      <c r="G28" s="86">
+      <c r="G28" s="77">
         <f>D39/$F39*$D32</f>
         <v>0.12682648401826482</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="77">
         <f>E39/$F39*$D32</f>
         <v>1.1529680365296802E-2</v>
       </c>
-      <c r="I28" s="86">
+      <c r="I28" s="77">
         <f>C40/$F40*$D33</f>
         <v>9.9200913242009123E-2</v>
       </c>
-      <c r="J28" s="86">
+      <c r="J28" s="77">
         <f>D40/$F40*$D33</f>
         <v>0.10821917808219178</v>
       </c>
-      <c r="K28" s="86">
+      <c r="K28" s="77">
         <f>E40/$F40*$D33</f>
         <v>9.0182648401826472E-3</v>
       </c>
-      <c r="L28" s="86">
+      <c r="L28" s="77">
         <f>C41/$F41*$D34</f>
         <v>0.13812785388127852</v>
       </c>
-      <c r="M28" s="86">
+      <c r="M28" s="77">
         <f>D41/$F41*$D34</f>
         <v>0.15068493150684931</v>
       </c>
-      <c r="N28" s="87">
+      <c r="N28" s="78">
         <f>E41/$F41*$D34</f>
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="93" t="s">
+      <c r="E30" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="96">
+      <c r="C31" s="85">
         <v>75</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="86">
         <f>C31/C35</f>
         <v>0.20547945205479451</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="99"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C32" s="85">
         <v>101</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="86">
         <f>C32/C35</f>
         <v>0.27671232876712326</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="99"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="85">
         <v>79</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="86">
         <f>C33/C35</f>
         <v>0.21643835616438356</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="99"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="102">
+      <c r="C34" s="91">
         <v>110</v>
       </c>
-      <c r="D34" s="103">
+      <c r="D34" s="92">
         <f>C34/C35</f>
         <v>0.30136986301369861</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="89"/>
-      <c r="C35" s="106">
+      <c r="B35" s="79"/>
+      <c r="C35" s="95">
         <f>SUM(C31:C34)</f>
         <v>365</v>
       </c>
-      <c r="D35" s="107">
+      <c r="D35" s="96">
         <f>SUM(D31:D34)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E35" s="108"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="89"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="91" t="s">
+      <c r="E37" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="113">
+      <c r="C38" s="102">
         <v>11</v>
       </c>
-      <c r="D38" s="114">
+      <c r="D38" s="103">
         <v>12</v>
       </c>
-      <c r="E38" s="113">
+      <c r="E38" s="102">
         <v>1</v>
       </c>
-      <c r="F38" s="106">
+      <c r="F38" s="95">
         <f>SUM(C38:E38)</f>
         <v>24</v>
       </c>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="116">
+      <c r="C39" s="105">
         <v>12</v>
       </c>
-      <c r="D39" s="117">
+      <c r="D39" s="106">
         <v>11</v>
       </c>
-      <c r="E39" s="116">
+      <c r="E39" s="105">
         <v>1</v>
       </c>
-      <c r="F39" s="106">
+      <c r="F39" s="95">
         <f>SUM(C39:E39)</f>
         <v>24</v>
       </c>
-      <c r="G39" s="106"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="116">
+      <c r="C40" s="105">
         <v>11</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="106">
         <v>12</v>
       </c>
-      <c r="E40" s="116">
+      <c r="E40" s="105">
         <v>1</v>
       </c>
-      <c r="F40" s="118">
+      <c r="F40" s="95">
         <f>SUM(C40:E40)</f>
         <v>24</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="120">
+      <c r="C41" s="108">
         <v>11</v>
       </c>
-      <c r="D41" s="121">
+      <c r="D41" s="109">
         <v>12</v>
       </c>
-      <c r="E41" s="120">
+      <c r="E41" s="108">
         <v>1</v>
       </c>
-      <c r="F41" s="118">
+      <c r="F41" s="95">
         <f>SUM(C41:E41)</f>
         <v>24</v>
       </c>
-      <c r="G41" s="118"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -8471,475 +8428,436 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="25">
         <v>0.8</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="F6" s="31"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="40"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="34" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="37">
         <f>C23/$F23*$D15</f>
         <v>9.417808219178081E-2</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="38">
         <f>D23/$F23*$D15</f>
         <v>0.10273972602739725</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="38">
         <f>E23/$F23*$D15</f>
         <v>8.5616438356164379E-3</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="38">
         <f>C24/$F24*$D16</f>
         <v>0.12682648401826482</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="38">
         <f>D24/$F24*$D16</f>
         <v>0.13835616438356163</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="38">
         <f>E24/$F24*$D16</f>
         <v>1.1529680365296802E-2</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="38">
         <f>C25/$F25*$D17</f>
         <v>9.9200913242009123E-2</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="38">
         <f>D25/$F25*$D17</f>
         <v>0.10821917808219178</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="38">
         <f>E25/$F25*$D17</f>
         <v>9.0182648401826472E-3</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="38">
         <f>C26/$F26*$D18</f>
         <v>0.13812785388127852</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="38">
         <f>D26/$F26*$D18</f>
         <v>0.15068493150684931</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="39">
         <f>E26/$F26*$D18</f>
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="2:14" ht="15.75">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="45"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="46">
         <v>75</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="47">
         <f>C15/C19</f>
         <v>0.20547945205479451</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="45"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="46">
         <v>101</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="47">
         <f>C16/C19</f>
         <v>0.27671232876712326</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="58" t="s">
+      <c r="F16" s="49"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="46">
         <v>79</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="47">
         <f>C17/C19</f>
         <v>0.21643835616438356</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="59" t="s">
+      <c r="F17" s="49"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="52">
         <v>110</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="53">
         <f>C18/C19</f>
         <v>0.30136986301369861</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="C19" s="64">
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19" s="56">
         <f>SUM(C15:C18)</f>
         <v>365</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="57">
         <f>SUM(D15:D18)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="C20" s="52"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="C21" s="52"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.75">
-      <c r="B22" s="48" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="D21" s="59"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75">
+      <c r="B22" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="70" t="s">
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="60">
         <v>11</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="33">
         <v>12</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="60">
         <v>1</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="56">
         <f>SUM(C23:E23)</f>
         <v>24</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="71" t="s">
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="64">
         <v>11</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="65">
         <v>12</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="64">
         <v>1</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="56">
         <f>SUM(C24:E24)</f>
         <v>24</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="71" t="s">
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="64">
         <v>11</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="65">
         <v>12</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="64">
         <v>1</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="56">
         <f>SUM(C25:E25)</f>
         <v>24</v>
       </c>
-      <c r="G25" s="74"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="75" t="s">
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="67">
         <v>11</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="68">
         <v>12</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="67">
         <v>1</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="56">
         <f>SUM(C26:E26)</f>
         <v>24</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="52"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="78"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="52"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="69"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8951,7 +8869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -8961,128 +8879,128 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
-      <c r="B4" s="134"/>
-      <c r="C4" s="136" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="134"/>
-      <c r="C5" s="135" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="135" t="s">
+      <c r="E5" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="134"/>
-      <c r="C6" s="134" t="s">
+      <c r="B6" s="120"/>
+      <c r="C6" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="120" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="134">
+      <c r="E6" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="134"/>
-      <c r="C7" s="134" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="134">
+      <c r="E7" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="134"/>
-      <c r="C8" s="134" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="134"/>
-      <c r="C9" s="134" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="134"/>
-      <c r="C10" s="134" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="134"/>
-      <c r="C11" s="134" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="120" t="s">
         <v>283</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="134"/>
-      <c r="C12" s="134" t="s">
+      <c r="B12" s="120"/>
+      <c r="C12" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="E13" s="134">
+      <c r="E13" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="120" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="139">
+      <c r="E14" s="120">
         <v>-1</v>
       </c>
     </row>
@@ -9098,16 +9016,16 @@
       </c>
     </row>
     <row r="18" spans="10:10">
-      <c r="J18" s="133"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="10:10">
-      <c r="J19" s="134"/>
+      <c r="J19" s="120"/>
     </row>
     <row r="20" spans="10:10">
-      <c r="J20" s="134"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="10:10">
-      <c r="J21" s="134"/>
+      <c r="J21" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9142,76 +9060,75 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>188</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="6"/>
       <c r="D6" t="s">
         <v>47</v>
       </c>
@@ -9227,242 +9144,238 @@
       <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="6"/>
-    </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="131" t="s">
+      <c r="B13" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="131"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="131" t="s">
+      <c r="B14" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="118" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="131" t="s">
+      <c r="B15" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="130">
+      <c r="D15" s="118">
         <v>1055.55</v>
       </c>
-      <c r="K15" s="132" t="s">
+      <c r="K15" s="119" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="131" t="s">
+      <c r="B16" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="130">
+      <c r="D16" s="118">
         <v>3.6</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="131" t="s">
+      <c r="B17" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="130">
+      <c r="D17" s="118">
         <v>1000</v>
       </c>
-      <c r="K17" s="132" t="s">
+      <c r="K17" s="119" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="131" t="s">
+      <c r="B18" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="130">
+      <c r="D18" s="118">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="131" t="s">
+      <c r="B19" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="130">
+      <c r="D19" s="118">
         <v>1.05555</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="131" t="s">
+      <c r="B20" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="130">
+      <c r="D20" s="118">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="131" t="s">
+      <c r="B21" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="130">
+      <c r="D21" s="118">
         <v>41.868000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="131" t="s">
+      <c r="B22" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="130">
+      <c r="D22" s="118">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="131" t="s">
+      <c r="B23" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="130">
+      <c r="D23" s="118">
         <v>1000000</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="131" t="s">
+      <c r="B24" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="130">
+      <c r="D24" s="118">
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="131" t="s">
+      <c r="B25" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="131" t="s">
+      <c r="C25" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="130">
+      <c r="D25" s="118">
         <v>0.15384600000000001</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="131" t="s">
+      <c r="B26" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="130">
+      <c r="D26" s="118">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="131" t="s">
+      <c r="B27" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="130">
+      <c r="D27" s="118">
         <v>1000</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="131" t="s">
+      <c r="B28" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="130">
+      <c r="D28" s="118">
         <v>37.681199999999997</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="131" t="s">
+      <c r="B29" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="130">
+      <c r="D29" s="118">
         <v>2299</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="131" t="s">
+      <c r="B30" t="s">
         <v>237</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" t="s">
         <v>231</v>
       </c>
-      <c r="D30" s="130">
+      <c r="D30" s="118">
         <v>2.7777769999999999</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="131" t="s">
+      <c r="B31" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="130">
+      <c r="D31" s="118">
         <v>3.6</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="131" t="s">
+      <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="130">
+      <c r="D32" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="131" t="s">
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="131" t="s">
+      <c r="C33" t="s">
         <v>287</v>
       </c>
-      <c r="D33" s="130">
+      <c r="D33" s="118">
         <v>1000</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda_testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AA9FE6-AB83-4492-B244-C7DCA19C8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F7AE9-BF63-4865-8C15-605422C42B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" tabRatio="853" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="298">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1150,6 +1150,15 @@
   </si>
   <si>
     <t>to model production tax credit</t>
+  </si>
+  <si>
+    <t>ELCTECOA00</t>
+  </si>
+  <si>
+    <t>~TFM_INS-txt</t>
+  </si>
+  <si>
+    <t>ELCTEGAS00</t>
   </si>
 </sst>
 </file>
@@ -5384,7 +5393,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -5839,9 +5848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N17"/>
+  <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -5966,46 +5977,51 @@
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="C15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" t="s">
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
         <v>186</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="C16" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6166,7 +6182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EC31CD-0AC2-4117-ADE4-ED9EFDB1D2DC}">
   <dimension ref="B3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -7555,10 +7571,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7741,6 +7757,71 @@
       </c>
       <c r="K36" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="13.5" thickBot="1">
+      <c r="B40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="D41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda_testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F7AE9-BF63-4865-8C15-605422C42B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E95C7-52AA-4DE1-8A22-0980FC05D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28065" yWindow="2475" windowWidth="21600" windowHeight="11333" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="298">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -5528,9 +5528,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5568,9 +5568,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5603,26 +5603,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5655,26 +5638,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5848,19 +5814,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N18"/>
+  <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="3.3984375" customWidth="1"/>
+    <col min="8" max="8" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
@@ -5873,7 +5839,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" ht="13.15">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5881,7 +5847,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" ht="13.15">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5977,51 +5943,46 @@
       </c>
     </row>
     <row r="11" spans="2:14">
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="C13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="C14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:14">
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" t="s">
-        <v>186</v>
-      </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6045,16 +6006,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="48.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15">
@@ -6108,7 +6069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="26.25" thickBot="1">
+    <row r="7" spans="2:9" ht="26.65" thickBot="1">
       <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
@@ -6159,12 +6120,12 @@
     <row r="14" spans="2:9">
       <c r="B14" s="119"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" ht="13.15">
       <c r="B16" s="123"/>
       <c r="C16" s="123"/>
       <c r="D16" s="123"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" ht="13.15">
       <c r="B17" s="123"/>
       <c r="C17" s="123"/>
       <c r="D17" s="123"/>
@@ -6188,17 +6149,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
@@ -6768,10 +6729,10 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -7065,13 +7026,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
@@ -7208,7 +7169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="13.15">
       <c r="A26" s="117" t="s">
         <v>212</v>
       </c>
@@ -7573,27 +7534,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.73046875" customWidth="1"/>
+    <col min="13" max="13" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="116">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="13.15">
       <c r="B3" s="1" t="str">
         <f>IF($A$1=1,"~TFM_MIG","~TFM_UPD")</f>
         <v>~TFM_MIG</v>
@@ -7669,19 +7630,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="18">
+    <row r="32" spans="2:4" ht="17.25">
       <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" ht="13.15">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="13.5" thickBot="1">
+    <row r="34" spans="2:17" ht="13.15" thickBot="1">
       <c r="B34" s="5" t="s">
         <v>19</v>
       </c>
@@ -7759,12 +7720,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" ht="13.15">
       <c r="B39" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="13.5" thickBot="1">
+    <row r="40" spans="2:17" ht="13.15" thickBot="1">
       <c r="B40" s="5" t="s">
         <v>19</v>
       </c>
@@ -7842,14 +7803,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" ht="13.15">
       <c r="C6" s="1" t="str">
         <f>IF(Interpol_Extrapol_Defaults!A1=1,"~TFM_INS-txt","~TFM_INS")</f>
         <v>~TFM_INS-txt</v>
@@ -7888,15 +7849,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="11"/>
+    <col min="2" max="2" width="12.1328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="10.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15">
@@ -7904,12 +7865,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" ht="13.15">
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="13.5" thickBot="1">
+    <row r="6" spans="2:8" ht="13.15" thickBot="1">
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -8047,7 +8008,7 @@
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="2:14" ht="18">
+    <row r="24" spans="2:14" ht="17.25">
       <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
@@ -8507,23 +8468,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="23"/>
+    <col min="13" max="13" width="12.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" ht="13.15">
       <c r="B2" s="22" t="s">
         <v>18</v>
       </c>
@@ -8568,7 +8529,7 @@
     <row r="6" spans="2:14">
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="2:14" ht="18">
+    <row r="7" spans="2:14" ht="17.25">
       <c r="B7" s="27" t="s">
         <v>56</v>
       </c>
@@ -8585,7 +8546,7 @@
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="13.15">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="29"/>
@@ -8600,7 +8561,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" ht="13.15">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -8641,7 +8602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" ht="13.15">
       <c r="B10" s="35"/>
       <c r="C10" s="32" t="s">
         <v>105</v>
@@ -8680,7 +8641,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="13.15">
       <c r="B11" s="36" t="s">
         <v>49</v>
       </c>
@@ -8733,18 +8694,18 @@
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="14.25">
+    <row r="12" spans="2:14" ht="13.5">
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="13.15">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75">
+    <row r="14" spans="2:14" ht="15">
       <c r="B14" s="41" t="s">
         <v>65</v>
       </c>
@@ -8759,7 +8720,7 @@
       </c>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="13.15">
       <c r="B15" s="45" t="s">
         <v>95</v>
       </c>
@@ -8775,7 +8736,7 @@
       </c>
       <c r="F15" s="49"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="13.15">
       <c r="B16" s="50" t="s">
         <v>68</v>
       </c>
@@ -8791,7 +8752,7 @@
       </c>
       <c r="F16" s="49"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" ht="13.15">
       <c r="B17" s="50" t="s">
         <v>88</v>
       </c>
@@ -8807,7 +8768,7 @@
       </c>
       <c r="F17" s="49"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" ht="13.15">
       <c r="B18" s="51" t="s">
         <v>69</v>
       </c>
@@ -8843,7 +8804,7 @@
     <row r="21" spans="2:7">
       <c r="D21" s="59"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75">
+    <row r="22" spans="2:7" ht="15">
       <c r="B22" s="41" t="s">
         <v>118</v>
       </c>
@@ -8857,7 +8818,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" ht="13.15">
       <c r="B23" s="62" t="s">
         <v>95</v>
       </c>
@@ -8875,7 +8836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" ht="13.15">
       <c r="B24" s="63" t="s">
         <v>68</v>
       </c>
@@ -8894,7 +8855,7 @@
       </c>
       <c r="G24" s="56"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" ht="13.15">
       <c r="B25" s="63" t="s">
         <v>88</v>
       </c>
@@ -8913,7 +8874,7 @@
       </c>
       <c r="G25" s="56"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" ht="13.15">
       <c r="B26" s="66" t="s">
         <v>69</v>
       </c>
@@ -8932,7 +8893,7 @@
       </c>
       <c r="G26" s="56"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" ht="13.15">
       <c r="B27" s="69"/>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
@@ -8956,10 +8917,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="13.15">
       <c r="B4" s="120"/>
       <c r="C4" s="122" t="s">
         <v>18</v>
@@ -8967,7 +8928,7 @@
       <c r="D4" s="120"/>
       <c r="E4" s="120"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="13.15">
       <c r="B5" s="120"/>
       <c r="C5" s="121" t="s">
         <v>21</v>
@@ -9124,15 +9085,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" ht="13.15">
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
@@ -9140,7 +9101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="13.5" thickBot="1">
+    <row r="3" spans="2:11" ht="13.15" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>43</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E95C7-52AA-4DE1-8A22-0980FC05D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C2BC98-F747-4211-AD6C-20B2066BB1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28065" yWindow="2475" windowWidth="21600" windowHeight="11333" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="299">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1159,6 +1159,9 @@
   </si>
   <si>
     <t>ELCTEGAS00</t>
+  </si>
+  <si>
+    <t>IRE_FLOSUM</t>
   </si>
 </sst>
 </file>
@@ -5816,7 +5819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7534,8 +7537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7620,6 +7623,17 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C2BC98-F747-4211-AD6C-20B2066BB1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAB2579-CCEA-49D4-AD85-E13101152694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="2145" windowWidth="21600" windowHeight="12683" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="300">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1162,6 +1162,9 @@
   </si>
   <si>
     <t>IRE_FLOSUM</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
   </si>
 </sst>
 </file>
@@ -5819,8 +5822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5846,7 +5849,9 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
@@ -7537,7 +7542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda_Nov22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AA9FE6-AB83-4492-B244-C7DCA19C8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB16811-1FE8-4A41-B187-4339620719E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" tabRatio="853" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -204,6 +204,41 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Amit Kanudia</author>
+  </authors>
+  <commentList>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{59109036-408F-45F8-93D5-8781B184F67F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+07-04-2024
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
@@ -265,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="299">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1150,13 +1185,25 @@
   </si>
   <si>
     <t>to model production tax credit</t>
+  </si>
+  <si>
+    <t>ACT~9</t>
+  </si>
+  <si>
+    <t>CAP~9</t>
+  </si>
+  <si>
+    <t>FLO~9</t>
+  </si>
+  <si>
+    <t>NCAP~9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="18">
+  <numFmts count="19">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1175,6 +1222,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
+    <numFmt numFmtId="182" formatCode="0E+00"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -2781,7 +2829,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3066,6 +3114,8 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="431" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="421"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="435">
     <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{868B5B88-E909-4783-AD13-DE2EB64A3CB4}"/>
@@ -5384,7 +5434,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -5519,9 +5569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5559,9 +5609,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5594,26 +5644,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5646,26 +5679,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5845,11 +5861,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="3.3984375" customWidth="1"/>
+    <col min="8" max="8" width="29.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
@@ -5862,7 +5878,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" ht="13.15">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5870,7 +5886,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" ht="13.15">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6029,16 +6045,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="48.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15">
@@ -6092,7 +6108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="26.25" thickBot="1">
+    <row r="7" spans="2:9" ht="26.65" thickBot="1">
       <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
@@ -6143,12 +6159,12 @@
     <row r="14" spans="2:9">
       <c r="B14" s="119"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" ht="13.15">
       <c r="B16" s="123"/>
       <c r="C16" s="123"/>
       <c r="D16" s="123"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" ht="13.15">
       <c r="B17" s="123"/>
       <c r="C17" s="123"/>
       <c r="D17" s="123"/>
@@ -6166,23 +6182,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EC31CD-0AC2-4117-ADE4-ED9EFDB1D2DC}">
   <dimension ref="B3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
@@ -6752,10 +6768,10 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -7049,13 +7065,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
@@ -7192,7 +7208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="13.15">
       <c r="A26" s="117" t="s">
         <v>212</v>
       </c>
@@ -7563,21 +7579,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.73046875" customWidth="1"/>
+    <col min="13" max="13" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="116">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="13.15">
       <c r="B3" s="1" t="str">
         <f>IF($A$1=1,"~TFM_MIG","~TFM_UPD")</f>
         <v>~TFM_MIG</v>
@@ -7653,19 +7669,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="18">
+    <row r="32" spans="2:4" ht="17.25">
       <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" ht="13.15">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="13.5" thickBot="1">
+    <row r="34" spans="2:17" ht="13.15" thickBot="1">
       <c r="B34" s="5" t="s">
         <v>19</v>
       </c>
@@ -7761,14 +7777,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" ht="13.15">
       <c r="C6" s="1" t="str">
         <f>IF(Interpol_Extrapol_Defaults!A1=1,"~TFM_INS-txt","~TFM_INS")</f>
         <v>~TFM_INS-txt</v>
@@ -7807,15 +7823,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="11"/>
+    <col min="2" max="2" width="12.1328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="10.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15">
@@ -7823,12 +7839,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" ht="13.15">
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="13.5" thickBot="1">
+    <row r="6" spans="2:8" ht="13.15" thickBot="1">
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -7966,7 +7982,7 @@
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="2:14" ht="18">
+    <row r="24" spans="2:14" ht="17.25">
       <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
@@ -8426,23 +8442,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="23"/>
+    <col min="13" max="13" width="12.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" ht="13.15">
       <c r="B2" s="22" t="s">
         <v>18</v>
       </c>
@@ -8487,7 +8503,7 @@
     <row r="6" spans="2:14">
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="2:14" ht="18">
+    <row r="7" spans="2:14" ht="17.25">
       <c r="B7" s="27" t="s">
         <v>56</v>
       </c>
@@ -8504,7 +8520,7 @@
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="13.15">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="29"/>
@@ -8519,7 +8535,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" ht="13.15">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -8560,7 +8576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" ht="13.15">
       <c r="B10" s="35"/>
       <c r="C10" s="32" t="s">
         <v>105</v>
@@ -8599,7 +8615,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="13.15">
       <c r="B11" s="36" t="s">
         <v>49</v>
       </c>
@@ -8652,18 +8668,18 @@
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="14.25">
+    <row r="12" spans="2:14" ht="13.5">
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="13.15">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75">
+    <row r="14" spans="2:14" ht="15">
       <c r="B14" s="41" t="s">
         <v>65</v>
       </c>
@@ -8678,7 +8694,7 @@
       </c>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="13.15">
       <c r="B15" s="45" t="s">
         <v>95</v>
       </c>
@@ -8694,7 +8710,7 @@
       </c>
       <c r="F15" s="49"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="13.15">
       <c r="B16" s="50" t="s">
         <v>68</v>
       </c>
@@ -8710,7 +8726,7 @@
       </c>
       <c r="F16" s="49"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" ht="13.15">
       <c r="B17" s="50" t="s">
         <v>88</v>
       </c>
@@ -8726,7 +8742,7 @@
       </c>
       <c r="F17" s="49"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" ht="13.15">
       <c r="B18" s="51" t="s">
         <v>69</v>
       </c>
@@ -8762,7 +8778,7 @@
     <row r="21" spans="2:7">
       <c r="D21" s="59"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75">
+    <row r="22" spans="2:7" ht="15">
       <c r="B22" s="41" t="s">
         <v>118</v>
       </c>
@@ -8776,7 +8792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" ht="13.15">
       <c r="B23" s="62" t="s">
         <v>95</v>
       </c>
@@ -8794,7 +8810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" ht="13.15">
       <c r="B24" s="63" t="s">
         <v>68</v>
       </c>
@@ -8813,7 +8829,7 @@
       </c>
       <c r="G24" s="56"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" ht="13.15">
       <c r="B25" s="63" t="s">
         <v>88</v>
       </c>
@@ -8832,7 +8848,7 @@
       </c>
       <c r="G25" s="56"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" ht="13.15">
       <c r="B26" s="66" t="s">
         <v>69</v>
       </c>
@@ -8851,7 +8867,7 @@
       </c>
       <c r="G26" s="56"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" ht="13.15">
       <c r="B27" s="69"/>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
@@ -8866,19 +8882,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
   <dimension ref="B4:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="13.15">
       <c r="B4" s="120"/>
       <c r="C4" s="122" t="s">
         <v>18</v>
@@ -8886,7 +8902,7 @@
       <c r="D4" s="120"/>
       <c r="E4" s="120"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="13.15">
       <c r="B5" s="120"/>
       <c r="C5" s="121" t="s">
         <v>21</v>
@@ -9015,21 +9031,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="16" spans="2:5">
+      <c r="C16" s="124" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="125">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="124" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="125">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="124" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="125">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="3:10">
+      <c r="C19" s="124" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="125">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="J19" s="120"/>
     </row>
-    <row r="20" spans="10:10">
+    <row r="20" spans="3:10">
       <c r="J20" s="120"/>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="3:10">
       <c r="J21" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9043,15 +9100,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" ht="13.15">
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
@@ -9059,7 +9116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="13.5" thickBot="1">
+    <row r="3" spans="2:11" ht="13.15" thickBot="1">
       <c r="B3" s="12" t="s">
         <v>43</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAB2579-CCEA-49D4-AD85-E13101152694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1619F2-FEDD-4090-8BDC-1A2B4BC4F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2145" windowWidth="21600" windowHeight="12683" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -204,6 +204,42 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Amit Kanudia</author>
+  </authors>
+  <commentList>
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{E5FA65AE-0E76-4B39-9F39-0FAAEE318060}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02-05-2024
+reserved word - available by default. And the default dimension in md
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
@@ -265,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="318">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1165,6 +1201,60 @@
   </si>
   <si>
     <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>workbook</t>
+  </si>
+  <si>
+    <t>worksheet</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>multi-row table with a header</t>
+  </si>
+  <si>
+    <t>~md_w</t>
+  </si>
+  <si>
+    <t>~md_s</t>
+  </si>
+  <si>
+    <t>~md_r</t>
+  </si>
+  <si>
+    <t>~md_c</t>
+  </si>
+  <si>
+    <t>~md_t</t>
+  </si>
+  <si>
+    <t>single block (could be multi-col/row)</t>
+  </si>
+  <si>
+    <t>~md_dimensions</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1281,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="67">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1596,6 +1686,19 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5822,7 +5925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -8485,7 +8588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
@@ -8927,15 +9030,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
-  <dimension ref="B4:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
+  <dimension ref="B4:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9076,21 +9180,104 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="3:10">
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="3:10">
       <c r="J19" s="120"/>
     </row>
-    <row r="20" spans="10:10">
+    <row r="20" spans="3:10">
+      <c r="C20" t="s">
+        <v>317</v>
+      </c>
       <c r="J20" s="120"/>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="3:10">
+      <c r="C21" t="s">
+        <v>300</v>
+      </c>
       <c r="J21" s="120"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="13.15">
+      <c r="C25" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1619F2-FEDD-4090-8BDC-1A2B4BC4F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F72AE-52B3-4385-B27B-4801ABB6EFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11423" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -31,6 +31,32 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Defaults!$B$14:$D$32</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -852,9 +878,6 @@
     <t>NRGO</t>
   </si>
   <si>
-    <t>ELCSOL,ELCWIN</t>
-  </si>
-  <si>
     <t>ExtREG1</t>
   </si>
   <si>
@@ -1255,6 +1278,9 @@
   </si>
   <si>
     <t>~md_dimensions</t>
+  </si>
+  <si>
+    <t>ELCWIN</t>
   </si>
 </sst>
 </file>
@@ -5637,9 +5663,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5677,9 +5703,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5712,9 +5738,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5747,9 +5790,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5940,12 +6000,12 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="N1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="2:14">
       <c r="N2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="13.15">
@@ -5953,7 +6013,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -6081,20 +6141,20 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="C16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6196,36 +6256,36 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
         <v>194</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" t="s">
         <v>195</v>
       </c>
-      <c r="E8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" t="s">
-        <v>196</v>
-      </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" t="s">
         <v>195</v>
       </c>
-      <c r="E9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" t="s">
-        <v>196</v>
-      </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -6642,16 +6702,16 @@
         <v>164</v>
       </c>
       <c r="D23" s="112" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="112" t="s">
         <v>288</v>
-      </c>
-      <c r="E23" s="112" t="s">
-        <v>289</v>
       </c>
       <c r="F23" t="s">
         <v>163</v>
       </c>
       <c r="G23" s="112" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -6684,10 +6744,10 @@
         <v>164</v>
       </c>
       <c r="D26" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="112" t="s">
         <v>189</v>
-      </c>
-      <c r="E26" s="112" t="s">
-        <v>190</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
@@ -6695,36 +6755,36 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
         <v>133</v>
       </c>
       <c r="D27" s="112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E27" s="112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
         <v>164</v>
       </c>
       <c r="D28" s="112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E28" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
         <v>163</v>
@@ -6736,7 +6796,7 @@
         <v>ENV</v>
       </c>
       <c r="D29" s="112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" t="str">
         <f>C29&amp;" commodity to test trade pcg"</f>
@@ -6752,7 +6812,7 @@
         <v>NRG</v>
       </c>
       <c r="D30" s="112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ref="E30:E33" si="1">C30&amp;" commodity to test trade pcg"</f>
@@ -6768,7 +6828,7 @@
         <v>MAT</v>
       </c>
       <c r="D31" s="112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
@@ -6784,14 +6844,14 @@
         <v>FIN</v>
       </c>
       <c r="D32" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
         <v>FIN commodity to test trade pcg</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -6800,7 +6860,7 @@
         <v>DEM</v>
       </c>
       <c r="D33" s="112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
@@ -6815,10 +6875,10 @@
         <v>164</v>
       </c>
       <c r="D34" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" t="s">
         <v>293</v>
-      </c>
-      <c r="E34" t="s">
-        <v>294</v>
       </c>
       <c r="F34" t="s">
         <v>51</v>
@@ -6848,7 +6908,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -6862,10 +6922,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" t="s">
         <v>245</v>
-      </c>
-      <c r="F3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -6873,16 +6933,16 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
       </c>
       <c r="E4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" t="s">
         <v>248</v>
-      </c>
-      <c r="F4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -6890,16 +6950,16 @@
         <v>88</v>
       </c>
       <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s">
         <v>250</v>
       </c>
-      <c r="D5" t="s">
-        <v>251</v>
-      </c>
       <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
         <v>248</v>
-      </c>
-      <c r="F5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -6907,7 +6967,7 @@
         <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
         <v>71</v>
@@ -6916,7 +6976,7 @@
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -6924,202 +6984,202 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="D8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="D9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="D10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="D11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="D12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="D13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="D14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="D15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="D16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="D26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="D28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="D29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="4:6">
       <c r="D30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="4:6">
       <c r="D31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -7151,7 +7211,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -7282,12 +7342,12 @@
     </row>
     <row r="26" spans="1:7" ht="13.15">
       <c r="A26" s="117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="113" t="str">
         <f>"msy"&amp;MAX(B29:B45)&amp;"-"&amp;COUNT(B29:B45)&amp;"p"</f>
@@ -7316,7 +7376,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28">
         <f>MAX(B29:B39)+4</f>
@@ -7333,7 +7393,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="13">
         <v>2005</v>
@@ -7359,7 +7419,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="13">
         <v>2007</v>
@@ -7385,7 +7445,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13">
@@ -7410,7 +7470,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13">
@@ -7435,7 +7495,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13">
@@ -7460,7 +7520,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -7483,7 +7543,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -7503,7 +7563,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -7523,7 +7583,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -7543,7 +7603,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -7560,7 +7620,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -7736,7 +7796,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="D8" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E8" s="14">
         <v>0</v>
@@ -7844,7 +7904,7 @@
     </row>
     <row r="39" spans="2:17" ht="13.15">
       <c r="B39" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="13.15" thickBot="1">
@@ -7893,7 +7953,7 @@
         <v>55</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="2:17">
@@ -7904,7 +7964,7 @@
         <v>55</v>
       </c>
       <c r="K42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7921,7 +7981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C6:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -7954,7 +8016,7 @@
         <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
         <v>182</v>
@@ -8588,7 +8650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
@@ -8628,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>3</v>
@@ -8636,13 +8698,13 @@
     </row>
     <row r="4" spans="2:14">
       <c r="D4" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="25">
         <v>0.8</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>86</v>
@@ -9066,10 +9128,10 @@
     <row r="6" spans="2:5">
       <c r="B6" s="120"/>
       <c r="C6" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="120" t="s">
         <v>278</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>279</v>
       </c>
       <c r="E6" s="120">
         <v>1</v>
@@ -9078,10 +9140,10 @@
     <row r="7" spans="2:5">
       <c r="B7" s="120"/>
       <c r="C7" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D7" s="120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="120">
         <v>1</v>
@@ -9090,10 +9152,10 @@
     <row r="8" spans="2:5">
       <c r="B8" s="120"/>
       <c r="C8" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" s="120">
         <v>1</v>
@@ -9102,10 +9164,10 @@
     <row r="9" spans="2:5">
       <c r="B9" s="120"/>
       <c r="C9" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E9" s="120">
         <v>1</v>
@@ -9114,10 +9176,10 @@
     <row r="10" spans="2:5">
       <c r="B10" s="120"/>
       <c r="C10" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="120">
         <v>0</v>
@@ -9126,10 +9188,10 @@
     <row r="11" spans="2:5">
       <c r="B11" s="120"/>
       <c r="C11" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D11" s="120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="120">
         <v>1</v>
@@ -9138,10 +9200,10 @@
     <row r="12" spans="2:5">
       <c r="B12" s="120"/>
       <c r="C12" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="120">
         <v>1</v>
@@ -9149,10 +9211,10 @@
     </row>
     <row r="13" spans="2:5">
       <c r="C13" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D13" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" s="120">
         <v>1</v>
@@ -9160,10 +9222,10 @@
     </row>
     <row r="14" spans="2:5">
       <c r="C14" s="120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D14" s="120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="120">
         <v>-1</v>
@@ -9171,10 +9233,10 @@
     </row>
     <row r="15" spans="2:5">
       <c r="C15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -9188,89 +9250,89 @@
     </row>
     <row r="20" spans="3:10">
       <c r="C20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J20" s="120"/>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J21" s="120"/>
     </row>
     <row r="22" spans="3:10">
       <c r="C22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="3:10">
       <c r="C23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="13.15">
       <c r="C25" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="3:10">
       <c r="C30" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E33" s="119" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -9355,7 +9417,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -9398,23 +9460,23 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
         <v>214</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="118" t="s">
         <v>215</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -9423,12 +9485,12 @@
         <v>1055.55</v>
       </c>
       <c r="K15" s="119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -9439,24 +9501,24 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" t="s">
         <v>219</v>
-      </c>
-      <c r="C17" t="s">
-        <v>220</v>
       </c>
       <c r="D17" s="118">
         <v>1000</v>
       </c>
       <c r="K17" s="119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" t="s">
         <v>221</v>
-      </c>
-      <c r="C18" t="s">
-        <v>222</v>
       </c>
       <c r="D18" s="118">
         <v>1000</v>
@@ -9464,7 +9526,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
@@ -9475,7 +9537,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -9486,7 +9548,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -9497,7 +9559,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
@@ -9508,10 +9570,10 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="118">
         <v>1000000</v>
@@ -9519,10 +9581,10 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
         <v>228</v>
-      </c>
-      <c r="C24" t="s">
-        <v>229</v>
       </c>
       <c r="D24" s="118">
         <v>1000</v>
@@ -9530,10 +9592,10 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" t="s">
         <v>230</v>
-      </c>
-      <c r="C25" t="s">
-        <v>231</v>
       </c>
       <c r="D25" s="118">
         <v>0.15384600000000001</v>
@@ -9541,10 +9603,10 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" t="s">
         <v>232</v>
-      </c>
-      <c r="C26" t="s">
-        <v>233</v>
       </c>
       <c r="D26" s="118">
         <v>-1E-3</v>
@@ -9552,7 +9614,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
@@ -9563,7 +9625,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
@@ -9574,7 +9636,7 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -9585,10 +9647,10 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D30" s="118">
         <v>2.7777769999999999</v>
@@ -9596,7 +9658,7 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
@@ -9621,7 +9683,7 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D33" s="118">
         <v>1000</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F72AE-52B3-4385-B27B-4801ABB6EFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B32299-3A73-42FE-AAE3-E05D4DC79CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11423" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -233,7 +233,7 @@
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{E5FA65AE-0E76-4B39-9F39-0FAAEE318060}">
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{8E2BCF16-74D8-47B1-9928-4E547A302406}">
       <text>
         <r>
           <rPr>
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="336">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1259,18 +1259,6 @@
     <t>multi-row table with a header</t>
   </si>
   <si>
-    <t>~md_w</t>
-  </si>
-  <si>
-    <t>~md_s</t>
-  </si>
-  <si>
-    <t>~md_r</t>
-  </si>
-  <si>
-    <t>~md_c</t>
-  </si>
-  <si>
     <t>~md_t</t>
   </si>
   <si>
@@ -1281,6 +1269,72 @@
   </si>
   <si>
     <t>ELCWIN</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>overwrite</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>~md-v_w</t>
+  </si>
+  <si>
+    <t>~md-v_s</t>
+  </si>
+  <si>
+    <t>~md-v_r</t>
+  </si>
+  <si>
+    <t>~md-v_c</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Valid entries</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>=&lt;top left cell&gt;</t>
+  </si>
+  <si>
+    <t>Location2</t>
+  </si>
+  <si>
+    <t>=&lt;bottom right cell&gt;</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Table/Row/Column/Cell</t>
+  </si>
+  <si>
+    <t>&lt;metadata dimension&gt;</t>
+  </si>
+  <si>
+    <t>that is defined in ~md_dimensions</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1361,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="69">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1727,6 +1781,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="58">
     <fill>
@@ -2046,7 +2116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2375,8 +2445,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2924,8 +3012,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3210,8 +3300,11 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="431" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="421"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="28" xfId="435"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="29" xfId="436"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="437">
     <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{868B5B88-E909-4783-AD13-DE2EB64A3CB4}"/>
     <cellStyle name="20% - Accent1 3" xfId="10" xr:uid="{61BBC959-7746-45BD-8177-E58B91071E9A}"/>
     <cellStyle name="20% - Accent2 2" xfId="11" xr:uid="{84EF0E0D-0CC7-40A8-A781-F5D8904EB610}"/>
@@ -3393,7 +3486,9 @@
     <cellStyle name="Good 2" xfId="187" xr:uid="{BB37B930-94A2-48EF-AF7B-C42475492154}"/>
     <cellStyle name="Heading" xfId="188" xr:uid="{5837C8E7-E8F7-4B5A-AFD0-01AF38EAA282}"/>
     <cellStyle name="Heading 1 2" xfId="189" xr:uid="{209321B4-9C5A-4EDB-A85D-010D1C6C4025}"/>
+    <cellStyle name="Heading 2" xfId="435" builtinId="17"/>
     <cellStyle name="Heading 2 2" xfId="190" xr:uid="{F2B40050-2B0C-4441-82A4-7207EE99CE0F}"/>
+    <cellStyle name="Heading 3" xfId="436" builtinId="18"/>
     <cellStyle name="Heading 3 2" xfId="191" xr:uid="{81A82C4F-F140-4055-B559-5F1DA28E4FE6}"/>
     <cellStyle name="Heading 4 2" xfId="192" xr:uid="{363D0A0E-394F-4ACF-9AEC-36F2FF4285FE}"/>
     <cellStyle name="Heading 5" xfId="193" xr:uid="{9735A0D9-49F9-4F43-B1E1-07F6390141C9}"/>
@@ -5663,9 +5758,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5703,9 +5798,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5738,26 +5833,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5790,26 +5868,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7981,7 +8042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C6:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -8016,7 +8077,7 @@
         <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
         <v>182</v>
@@ -9093,10 +9154,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8848E86-A146-4530-A694-2F38523B621A}">
-  <dimension ref="B4:J33"/>
+  <dimension ref="B4:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9250,89 +9311,186 @@
     </row>
     <row r="20" spans="3:10">
       <c r="C20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J20" s="120"/>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" t="s">
-        <v>299</v>
+        <v>314</v>
+      </c>
+      <c r="D21" t="s">
+        <v>315</v>
       </c>
       <c r="J21" s="120"/>
     </row>
     <row r="22" spans="3:10">
       <c r="C22" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="D22" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="3:10">
       <c r="C23" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="D23" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" ht="13.15">
-      <c r="C25" s="3" t="s">
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="13.15">
+      <c r="C27" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="3:10">
-      <c r="C29" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
     <row r="30" spans="3:10">
-      <c r="C30" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>315</v>
+      <c r="C30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="14" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D33" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E35" s="119" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="17.25" thickBot="1">
+      <c r="C38" s="124" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15" thickTop="1" thickBot="1">
+      <c r="C39" s="125" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="E39" s="125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" s="126" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" s="126" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" t="s">
+        <v>333</v>
+      </c>
+      <c r="E43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
